--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_15_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_15_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1201448.003494029</v>
+        <v>1198880.418558496</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4982078.03176158</v>
+        <v>4982078.031761581</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>33.76104808841096</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -724,7 +724,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.95103878648243</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -743,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>36.39025468426208</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -788,16 +788,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>36.39025468426209</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -825,16 +825,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>36.39025468426208</v>
       </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>41.31500304752735</v>
-      </c>
       <c r="X4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>0.8069000430770259</v>
       </c>
       <c r="X5" t="n">
-        <v>14.95103878648243</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -974,65 +974,65 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="T6" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="U6" t="n">
         <v>36.39025468426209</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36.39025468426209</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
     </row>
     <row r="8">
@@ -1214,19 +1214,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>36.39025468426209</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>36.39025468426208</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="H9" t="n">
         <v>41.31500304752735</v>
@@ -1277,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1299,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="F10" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.18661160258025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>48.36571931883861</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1381,10 +1381,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.7626676066075</v>
       </c>
       <c r="H11" t="n">
         <v>269.6358874562563</v>
@@ -1423,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>210.7698155204704</v>
       </c>
       <c r="U11" t="n">
-        <v>175.3491889300614</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1539,16 +1539,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.2081542400095</v>
       </c>
       <c r="H13" t="n">
-        <v>132.0376124868583</v>
+        <v>65.1406738420788</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>65.90422234702716</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>144.9757031410272</v>
       </c>
       <c r="T13" t="n">
         <v>240.3134905693484</v>
@@ -1587,13 +1587,13 @@
         <v>275.6090048493664</v>
       </c>
       <c r="V13" t="n">
-        <v>68.35719305961705</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>246.2170913934737</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>15.16363298995053</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.7626676066075</v>
       </c>
       <c r="H14" t="n">
         <v>269.6358874562563</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>45.87259149116939</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.5003848196444</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1782,10 +1782,10 @@
         <v>163.2081542400095</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>132.0376124868583</v>
       </c>
       <c r="I16" t="n">
-        <v>65.90422234702716</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>144.9757031410272</v>
       </c>
       <c r="T16" t="n">
-        <v>211.2686438949508</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>275.6090048493664</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>94.85298311963834</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1852,7 +1852,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>381.3883727734852</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>45.87259149116938</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>321.0298226755115</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2004,7 +2004,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016069</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2058,7 +2058,7 @@
         <v>240.3134905693484</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6090048493664</v>
+        <v>275.6090048493662</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2083,19 +2083,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>333.0639016041799</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>230.2600202189679</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>45.87259149116938</v>
+        <v>45.87259149116939</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.7698155204704</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2149,7 +2149,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2253,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.2081542400099</v>
+        <v>163.2081542400095</v>
       </c>
       <c r="H22" t="n">
         <v>132.0376124868583</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>45.87259149116938</v>
+        <v>45.87259149116939</v>
       </c>
       <c r="T23" t="n">
         <v>210.7698155204704</v>
       </c>
       <c r="U23" t="n">
-        <v>256.5003848196444</v>
+        <v>256.5003848196451</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>45.87259149116938</v>
+        <v>45.87259149117054</v>
       </c>
       <c r="T26" t="n">
         <v>210.7698155204704</v>
@@ -2797,7 +2797,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773006</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>45.87259149116938</v>
+        <v>45.87259149116939</v>
       </c>
       <c r="T29" t="n">
         <v>210.7698155204704</v>
@@ -2857,7 +2857,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864831</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>45.87259149116938</v>
+        <v>45.87259149116939</v>
       </c>
       <c r="T32" t="n">
         <v>210.7698155204704</v>
       </c>
       <c r="U32" t="n">
-        <v>256.5003848196444</v>
+        <v>256.5003848196442</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -3280,7 +3280,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>395.7626676066075</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>269.6358874562563</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>45.87259149116938</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>210.7698155204704</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>44.15869014100263</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>55.42926357063441</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>144.9757031410272</v>
+        <v>144.975703141027</v>
       </c>
       <c r="T37" t="n">
         <v>240.3134905693484</v>
@@ -3505,22 +3505,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>237.0951933447575</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.7626676066075</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>269.6358874562563</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>45.87259149116938</v>
+        <v>45.87259149116939</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>79.01539646267243</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3717,7 +3717,7 @@
         <v>240.3134905693484</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6090048493666</v>
+        <v>275.6090048493664</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3745,10 +3745,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>22.94850160626078</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>31.58258834538608</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3903,13 +3903,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>163.2081542400095</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>144.9757031410272</v>
       </c>
       <c r="T43" t="n">
-        <v>236.3520259474619</v>
+        <v>240.3134905693484</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6090048493664</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>157.0991823874373</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>141.2010707472446</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>269.6358874562563</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>45.87259149116938</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>83.88060623679539</v>
       </c>
     </row>
     <row r="45">
@@ -4152,10 +4152,10 @@
         <v>163.2081542400095</v>
       </c>
       <c r="H46" t="n">
-        <v>132.0376124868583</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>65.90422234702716</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>144.9757031410272</v>
       </c>
       <c r="T46" t="n">
-        <v>240.3134905693484</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>150.2794991244155</v>
+        <v>275.6090048493664</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>200.5222923568484</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>122.8380161568152</v>
+        <v>122.8380161568153</v>
       </c>
       <c r="C2" t="n">
         <v>88.73594738064259</v>
@@ -4330,7 +4330,7 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J2" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="K2" t="n">
         <v>44.20705326085427</v>
@@ -4339,19 +4339,19 @@
         <v>44.20705326085427</v>
       </c>
       <c r="M2" t="n">
-        <v>44.20705326085427</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="N2" t="n">
-        <v>44.20705326085427</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="O2" t="n">
-        <v>85.10890627790634</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P2" t="n">
-        <v>85.10890627790634</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q2" t="n">
-        <v>126.0107592949584</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="R2" t="n">
         <v>165.2600121901094</v>
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.305200243802188</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="C3" t="n">
-        <v>3.305200243802188</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="D3" t="n">
-        <v>3.305200243802188</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="E3" t="n">
-        <v>3.305200243802188</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="F3" t="n">
-        <v>3.305200243802188</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="G3" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="H3" t="n">
         <v>3.305200243802188</v>
@@ -4409,22 +4409,22 @@
         <v>29.36887340425979</v>
       </c>
       <c r="J3" t="n">
+        <v>29.36887340425979</v>
+      </c>
+      <c r="K3" t="n">
         <v>70.27072642131186</v>
-      </c>
-      <c r="K3" t="n">
-        <v>111.1725794383639</v>
       </c>
       <c r="L3" t="n">
         <v>111.1725794383639</v>
       </c>
       <c r="M3" t="n">
-        <v>124.3581591730573</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="N3" t="n">
-        <v>124.3581591730573</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="O3" t="n">
-        <v>124.3581591730573</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="P3" t="n">
         <v>124.3581591730573</v>
@@ -4436,25 +4436,25 @@
         <v>165.2600121901094</v>
       </c>
       <c r="S3" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T3" t="n">
-        <v>81.79535956884203</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U3" t="n">
-        <v>40.06303325820834</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V3" t="n">
-        <v>3.305200243802188</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W3" t="n">
-        <v>3.305200243802188</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="X3" t="n">
-        <v>3.305200243802188</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.305200243802188</v>
+        <v>165.2600121901094</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.305200243802188</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="C4" t="n">
-        <v>3.305200243802188</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="D4" t="n">
-        <v>3.305200243802188</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="E4" t="n">
-        <v>3.305200243802188</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="F4" t="n">
-        <v>3.305200243802188</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="G4" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="H4" t="n">
         <v>3.305200243802188</v>
@@ -4488,25 +4488,25 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J4" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K4" t="n">
-        <v>42.55445313895319</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="L4" t="n">
-        <v>42.55445313895319</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="M4" t="n">
-        <v>83.45630615600527</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="N4" t="n">
+        <v>85.10890627790634</v>
+      </c>
+      <c r="O4" t="n">
+        <v>85.10890627790634</v>
+      </c>
+      <c r="P4" t="n">
         <v>124.3581591730573</v>
-      </c>
-      <c r="O4" t="n">
-        <v>124.3581591730573</v>
-      </c>
-      <c r="P4" t="n">
-        <v>165.2600121901094</v>
       </c>
       <c r="Q4" t="n">
         <v>165.2600121901094</v>
@@ -4515,25 +4515,25 @@
         <v>165.2600121901094</v>
       </c>
       <c r="S4" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T4" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U4" t="n">
-        <v>86.76985286506957</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V4" t="n">
-        <v>86.76985286506957</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W4" t="n">
-        <v>45.03752655443588</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="X4" t="n">
-        <v>3.305200243802188</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.305200243802188</v>
+        <v>128.5021791757032</v>
       </c>
     </row>
     <row r="5">
@@ -4567,25 +4567,25 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J5" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K5" t="n">
-        <v>42.55445313895319</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L5" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="M5" t="n">
         <v>124.3581591730573</v>
       </c>
       <c r="N5" t="n">
-        <v>165.2600121901094</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="O5" t="n">
-        <v>165.2600121901094</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P5" t="n">
-        <v>165.2600121901094</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q5" t="n">
         <v>165.2600121901094</v>
@@ -4606,7 +4606,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="W5" t="n">
-        <v>164.4449616415468</v>
+        <v>164.4449616415467</v>
       </c>
       <c r="X5" t="n">
         <v>149.3429022612615</v>
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>81.79535956884203</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="C6" t="n">
-        <v>81.79535956884203</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="D6" t="n">
-        <v>81.79535956884203</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E6" t="n">
-        <v>40.06303325820834</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F6" t="n">
-        <v>40.06303325820834</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G6" t="n">
-        <v>40.06303325820834</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="H6" t="n">
         <v>3.305200243802188</v>
@@ -4646,16 +4646,16 @@
         <v>29.36887340425979</v>
       </c>
       <c r="J6" t="n">
-        <v>70.27072642131186</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="K6" t="n">
         <v>70.27072642131186</v>
       </c>
       <c r="L6" t="n">
-        <v>70.27072642131186</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="M6" t="n">
-        <v>70.27072642131186</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="N6" t="n">
         <v>83.45630615600527</v>
@@ -4664,34 +4664,34 @@
         <v>83.45630615600527</v>
       </c>
       <c r="P6" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q6" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="R6" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="S6" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="T6" t="n">
-        <v>165.2600121901094</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="U6" t="n">
-        <v>165.2600121901094</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="V6" t="n">
-        <v>165.2600121901094</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="W6" t="n">
-        <v>165.2600121901094</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="X6" t="n">
-        <v>123.5276858794757</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="Y6" t="n">
-        <v>123.5276858794757</v>
+        <v>45.03752655443588</v>
       </c>
     </row>
     <row r="7">
@@ -4731,16 +4731,16 @@
         <v>44.20705326085427</v>
       </c>
       <c r="L7" t="n">
-        <v>85.10890627790634</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="M7" t="n">
-        <v>85.10890627790634</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="N7" t="n">
-        <v>124.3581591730573</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="O7" t="n">
-        <v>124.3581591730573</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P7" t="n">
         <v>124.3581591730573</v>
@@ -4749,28 +4749,28 @@
         <v>165.2600121901094</v>
       </c>
       <c r="R7" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="S7" t="n">
-        <v>123.5276858794757</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="T7" t="n">
-        <v>123.5276858794757</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="U7" t="n">
-        <v>123.5276858794757</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="V7" t="n">
-        <v>123.5276858794757</v>
+        <v>60.37753827421391</v>
       </c>
       <c r="W7" t="n">
-        <v>123.5276858794757</v>
+        <v>60.37753827421391</v>
       </c>
       <c r="X7" t="n">
-        <v>81.79535956884203</v>
+        <v>60.37753827421391</v>
       </c>
       <c r="Y7" t="n">
-        <v>81.79535956884203</v>
+        <v>45.03752655443588</v>
       </c>
     </row>
     <row r="8">
@@ -4804,22 +4804,22 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J8" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="K8" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="L8" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="M8" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="N8" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="O8" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="P8" t="n">
         <v>83.45630615600527</v>
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>81.79535956884203</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="C9" t="n">
-        <v>45.03752655443588</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="D9" t="n">
-        <v>45.03752655443588</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="E9" t="n">
-        <v>45.03752655443588</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="F9" t="n">
-        <v>45.03752655443588</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="G9" t="n">
         <v>45.03752655443588</v>
@@ -4880,25 +4880,25 @@
         <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="J9" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="K9" t="n">
-        <v>44.20705326085427</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="L9" t="n">
-        <v>44.20705326085427</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="M9" t="n">
-        <v>83.45630615600527</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="N9" t="n">
-        <v>83.45630615600527</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="O9" t="n">
-        <v>83.45630615600527</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="P9" t="n">
         <v>83.45630615600527</v>
@@ -4925,10 +4925,10 @@
         <v>165.2600121901094</v>
       </c>
       <c r="X9" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Y9" t="n">
-        <v>81.79535956884203</v>
+        <v>165.2600121901094</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>143.8421908954813</v>
+      </c>
+      <c r="C10" t="n">
+        <v>143.8421908954813</v>
+      </c>
+      <c r="D10" t="n">
+        <v>143.8421908954813</v>
+      </c>
+      <c r="E10" t="n">
+        <v>128.5021791757032</v>
+      </c>
+      <c r="F10" t="n">
+        <v>86.76985286506957</v>
+      </c>
+      <c r="G10" t="n">
         <v>45.03752655443588</v>
       </c>
-      <c r="C10" t="n">
+      <c r="H10" t="n">
         <v>45.03752655443588</v>
-      </c>
-      <c r="D10" t="n">
-        <v>45.03752655443588</v>
-      </c>
-      <c r="E10" t="n">
-        <v>45.03752655443588</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3.305200243802188</v>
-      </c>
-      <c r="G10" t="n">
-        <v>3.305200243802188</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.305200243802188</v>
       </c>
       <c r="I10" t="n">
         <v>3.305200243802188</v>
@@ -4965,19 +4965,19 @@
         <v>44.20705326085427</v>
       </c>
       <c r="K10" t="n">
-        <v>85.10890627790634</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="L10" t="n">
-        <v>85.10890627790634</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="M10" t="n">
-        <v>85.10890627790634</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="N10" t="n">
-        <v>85.10890627790634</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="O10" t="n">
-        <v>85.10890627790634</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P10" t="n">
         <v>124.3581591730573</v>
@@ -4995,19 +4995,19 @@
         <v>143.8421908954813</v>
       </c>
       <c r="U10" t="n">
-        <v>102.1098645848476</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="V10" t="n">
-        <v>102.1098645848476</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="W10" t="n">
-        <v>102.1098645848476</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="X10" t="n">
-        <v>60.37753827421391</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="Y10" t="n">
-        <v>45.03752655443588</v>
+        <v>143.8421908954813</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1616.39733332011</v>
+        <v>1588.290174039022</v>
       </c>
       <c r="C11" t="n">
-        <v>1178.254860503533</v>
+        <v>1150.147701222445</v>
       </c>
       <c r="D11" t="n">
-        <v>1178.254860503533</v>
+        <v>1150.147701222445</v>
       </c>
       <c r="E11" t="n">
-        <v>744.480115661828</v>
+        <v>716.3729563807402</v>
       </c>
       <c r="F11" t="n">
-        <v>316.6126860710357</v>
+        <v>716.3729563807402</v>
       </c>
       <c r="G11" t="n">
         <v>316.6126860710357</v>
@@ -5041,16 +5041,16 @@
         <v>105.7204533109523</v>
       </c>
       <c r="J11" t="n">
-        <v>241.9405815465245</v>
+        <v>241.9405815465244</v>
       </c>
       <c r="K11" t="n">
-        <v>446.0992423461906</v>
+        <v>446.0992423461905</v>
       </c>
       <c r="L11" t="n">
         <v>699.3761140118711</v>
       </c>
       <c r="M11" t="n">
-        <v>981.1954349685204</v>
+        <v>981.1954349685203</v>
       </c>
       <c r="N11" t="n">
         <v>1267.574887171277</v>
@@ -5059,10 +5059,10 @@
         <v>1537.994883121159</v>
       </c>
       <c r="P11" t="n">
-        <v>1938.522673544401</v>
+        <v>1768.792093276661</v>
       </c>
       <c r="Q11" t="n">
-        <v>2111.841766585526</v>
+        <v>1942.687701832469</v>
       </c>
       <c r="R11" t="n">
         <v>2212.660189599447</v>
@@ -5071,22 +5071,22 @@
         <v>2212.660189599447</v>
       </c>
       <c r="T11" t="n">
-        <v>2212.660189599447</v>
+        <v>1999.761386043416</v>
       </c>
       <c r="U11" t="n">
-        <v>2035.539796740799</v>
+        <v>1999.761386043416</v>
       </c>
       <c r="V11" t="n">
-        <v>2035.539796740799</v>
+        <v>1637.144435977242</v>
       </c>
       <c r="W11" t="n">
-        <v>2035.539796740799</v>
+        <v>1637.144435977242</v>
       </c>
       <c r="X11" t="n">
-        <v>1616.39733332011</v>
+        <v>1637.144435977242</v>
       </c>
       <c r="Y11" t="n">
-        <v>1616.39733332011</v>
+        <v>1637.144435977242</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>44.25320379198894</v>
       </c>
       <c r="I12" t="n">
-        <v>73.81935369821747</v>
+        <v>99.88302685867507</v>
       </c>
       <c r="J12" t="n">
-        <v>154.9511288740224</v>
+        <v>263.8384855565101</v>
       </c>
       <c r="K12" t="n">
-        <v>293.6182551284957</v>
+        <v>402.5056118109834</v>
       </c>
       <c r="L12" t="n">
-        <v>480.0733189638897</v>
+        <v>588.9606756463774</v>
       </c>
       <c r="M12" t="n">
-        <v>697.6575839425931</v>
+        <v>806.5449406250807</v>
       </c>
       <c r="N12" t="n">
-        <v>921.0006569730956</v>
+        <v>1029.888013655583</v>
       </c>
       <c r="O12" t="n">
-        <v>1125.315935184965</v>
+        <v>1234.203291867453</v>
       </c>
       <c r="P12" t="n">
-        <v>1289.296958703103</v>
+        <v>1398.18431538559</v>
       </c>
       <c r="Q12" t="n">
-        <v>1507.801286961497</v>
+        <v>1507.801286961498</v>
       </c>
       <c r="R12" t="n">
         <v>1678.291060988649</v>
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>685.8222376008054</v>
+        <v>853.8215578417257</v>
       </c>
       <c r="C13" t="n">
-        <v>513.2605260840303</v>
+        <v>853.8215578417257</v>
       </c>
       <c r="D13" t="n">
-        <v>347.382533285553</v>
+        <v>687.9435650432484</v>
       </c>
       <c r="E13" t="n">
-        <v>177.6245295362903</v>
+        <v>518.1855612939858</v>
       </c>
       <c r="F13" t="n">
-        <v>177.6245295362903</v>
+        <v>341.478507255742</v>
       </c>
       <c r="G13" t="n">
-        <v>177.6245295362903</v>
+        <v>176.6217858011869</v>
       </c>
       <c r="H13" t="n">
-        <v>44.25320379198894</v>
+        <v>110.8231253546426</v>
       </c>
       <c r="I13" t="n">
         <v>44.25320379198894</v>
       </c>
       <c r="J13" t="n">
-        <v>181.732357410262</v>
+        <v>95.15267224557221</v>
       </c>
       <c r="K13" t="n">
-        <v>540.134274349508</v>
+        <v>178.7961346136825</v>
       </c>
       <c r="L13" t="n">
-        <v>1065.378990512467</v>
+        <v>704.0408507766418</v>
       </c>
       <c r="M13" t="n">
-        <v>1178.232215990818</v>
+        <v>816.8940762549928</v>
       </c>
       <c r="N13" t="n">
-        <v>1364.301378342509</v>
+        <v>1184.9872592365</v>
       </c>
       <c r="O13" t="n">
-        <v>1885.730295244299</v>
+        <v>1706.416176138289</v>
       </c>
       <c r="P13" t="n">
-        <v>1972.803270466939</v>
+        <v>2140.996045331271</v>
       </c>
       <c r="Q13" t="n">
         <v>2201.280860031793</v>
@@ -5226,25 +5226,25 @@
         <v>2212.660189599447</v>
       </c>
       <c r="S13" t="n">
-        <v>2212.660189599447</v>
+        <v>2066.220085416591</v>
       </c>
       <c r="T13" t="n">
-        <v>1969.919290034448</v>
+        <v>1823.479185851592</v>
       </c>
       <c r="U13" t="n">
-        <v>1691.526355843169</v>
+        <v>1545.086251660313</v>
       </c>
       <c r="V13" t="n">
-        <v>1622.47868608598</v>
+        <v>1545.086251660313</v>
       </c>
       <c r="W13" t="n">
-        <v>1350.452281672272</v>
+        <v>1273.059847246605</v>
       </c>
       <c r="X13" t="n">
-        <v>1105.060527005684</v>
+        <v>1273.059847246605</v>
       </c>
       <c r="Y13" t="n">
-        <v>877.6408563197924</v>
+        <v>1045.640176560713</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>759.796916661778</v>
+        <v>1150.147701222445</v>
       </c>
       <c r="C14" t="n">
-        <v>759.796916661778</v>
+        <v>1150.147701222445</v>
       </c>
       <c r="D14" t="n">
-        <v>744.480115661828</v>
+        <v>1150.147701222445</v>
       </c>
       <c r="E14" t="n">
-        <v>744.480115661828</v>
+        <v>716.3729563807402</v>
       </c>
       <c r="F14" t="n">
-        <v>316.6126860710357</v>
+        <v>716.3729563807402</v>
       </c>
       <c r="G14" t="n">
         <v>316.6126860710357</v>
@@ -5278,19 +5278,19 @@
         <v>105.7204533109523</v>
       </c>
       <c r="J14" t="n">
-        <v>241.9405815465245</v>
+        <v>411.6711618142647</v>
       </c>
       <c r="K14" t="n">
-        <v>446.0992423461906</v>
+        <v>615.8298226139309</v>
       </c>
       <c r="L14" t="n">
-        <v>699.3761140118711</v>
+        <v>869.1066942796115</v>
       </c>
       <c r="M14" t="n">
-        <v>1150.92601523626</v>
+        <v>1150.926015236261</v>
       </c>
       <c r="N14" t="n">
-        <v>1437.305467439017</v>
+        <v>1437.305467439018</v>
       </c>
       <c r="O14" t="n">
         <v>1707.725463388899</v>
@@ -5305,25 +5305,25 @@
         <v>2212.660189599447</v>
       </c>
       <c r="S14" t="n">
-        <v>2212.660189599447</v>
+        <v>2166.324238598266</v>
       </c>
       <c r="T14" t="n">
-        <v>2212.660189599447</v>
+        <v>2166.324238598266</v>
       </c>
       <c r="U14" t="n">
-        <v>1953.568891801826</v>
+        <v>2166.324238598266</v>
       </c>
       <c r="V14" t="n">
-        <v>1590.951941735653</v>
+        <v>1803.707288532092</v>
       </c>
       <c r="W14" t="n">
-        <v>1186.096487146686</v>
+        <v>1398.851833943125</v>
       </c>
       <c r="X14" t="n">
-        <v>1186.096487146686</v>
+        <v>1398.851833943125</v>
       </c>
       <c r="Y14" t="n">
-        <v>1186.096487146686</v>
+        <v>1398.851833943125</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>99.88302685867507</v>
       </c>
       <c r="J15" t="n">
-        <v>263.8384855565096</v>
+        <v>263.8384855565101</v>
       </c>
       <c r="K15" t="n">
-        <v>402.5056118109829</v>
+        <v>402.5056118109834</v>
       </c>
       <c r="L15" t="n">
-        <v>588.9606756463769</v>
+        <v>588.9606756463774</v>
       </c>
       <c r="M15" t="n">
-        <v>806.5449406250802</v>
+        <v>806.5449406250807</v>
       </c>
       <c r="N15" t="n">
         <v>1029.888013655583</v>
       </c>
       <c r="O15" t="n">
-        <v>1234.203291867452</v>
+        <v>1234.203291867453</v>
       </c>
       <c r="P15" t="n">
         <v>1398.18431538559</v>
       </c>
       <c r="Q15" t="n">
-        <v>1507.801286961497</v>
+        <v>1507.801286961498</v>
       </c>
       <c r="R15" t="n">
         <v>1678.291060988649</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>788.0228973951815</v>
+        <v>1027.386013093604</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0228973951815</v>
+        <v>854.8243015768293</v>
       </c>
       <c r="D16" t="n">
-        <v>622.1449045967042</v>
+        <v>688.946308778352</v>
       </c>
       <c r="E16" t="n">
-        <v>452.3869008474416</v>
+        <v>519.1883050290892</v>
       </c>
       <c r="F16" t="n">
-        <v>275.6798468091977</v>
+        <v>342.4812509908454</v>
       </c>
       <c r="G16" t="n">
-        <v>110.8231253546426</v>
+        <v>177.6245295362903</v>
       </c>
       <c r="H16" t="n">
-        <v>110.8231253546426</v>
+        <v>44.25320379198894</v>
       </c>
       <c r="I16" t="n">
         <v>44.25320379198894</v>
@@ -5439,19 +5439,19 @@
         <v>95.15267224557221</v>
       </c>
       <c r="K16" t="n">
-        <v>349.446212102182</v>
+        <v>178.7961346136825</v>
       </c>
       <c r="L16" t="n">
-        <v>874.6909282651413</v>
+        <v>285.8309690086807</v>
       </c>
       <c r="M16" t="n">
-        <v>1422.324325191004</v>
+        <v>833.4643659345437</v>
       </c>
       <c r="N16" t="n">
-        <v>1532.494153206842</v>
+        <v>1381.097762860407</v>
       </c>
       <c r="O16" t="n">
-        <v>2053.923070108631</v>
+        <v>1902.526679762196</v>
       </c>
       <c r="P16" t="n">
         <v>2140.996045331271</v>
@@ -5466,22 +5466,22 @@
         <v>2066.220085416591</v>
       </c>
       <c r="T16" t="n">
-        <v>1852.81741481563</v>
+        <v>2066.220085416591</v>
       </c>
       <c r="U16" t="n">
-        <v>1574.424480624351</v>
+        <v>1787.827151225312</v>
       </c>
       <c r="V16" t="n">
-        <v>1287.468972494782</v>
+        <v>1787.827151225312</v>
       </c>
       <c r="W16" t="n">
-        <v>1015.442568081073</v>
+        <v>1692.016057165071</v>
       </c>
       <c r="X16" t="n">
-        <v>1015.442568081073</v>
+        <v>1446.624302498483</v>
       </c>
       <c r="Y16" t="n">
-        <v>788.0228973951815</v>
+        <v>1219.204631812592</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1795.712567287244</v>
+        <v>1747.178603024818</v>
       </c>
       <c r="C17" t="n">
-        <v>1357.570094470668</v>
+        <v>1309.036130208241</v>
       </c>
       <c r="D17" t="n">
-        <v>921.6603096451123</v>
+        <v>873.1263453826855</v>
       </c>
       <c r="E17" t="n">
         <v>487.8855648034075</v>
       </c>
       <c r="F17" t="n">
-        <v>60.01813521261524</v>
+        <v>60.01813521261523</v>
       </c>
       <c r="G17" t="n">
-        <v>60.01813521261524</v>
+        <v>60.01813521261523</v>
       </c>
       <c r="H17" t="n">
-        <v>60.01813521261524</v>
+        <v>60.01813521261523</v>
       </c>
       <c r="I17" t="n">
-        <v>121.4853847315786</v>
+        <v>121.4853847315785</v>
       </c>
       <c r="J17" t="n">
-        <v>257.7055129671508</v>
+        <v>692.9602004200686</v>
       </c>
       <c r="K17" t="n">
-        <v>461.8641737668169</v>
+        <v>897.1188612197348</v>
       </c>
       <c r="L17" t="n">
-        <v>715.1410454324974</v>
+        <v>1150.395732885415</v>
       </c>
       <c r="M17" t="n">
-        <v>996.9603663891467</v>
+        <v>1432.215053842065</v>
       </c>
       <c r="N17" t="n">
-        <v>1283.339818591903</v>
+        <v>1718.594506044821</v>
       </c>
       <c r="O17" t="n">
-        <v>2026.064241848017</v>
+        <v>1989.014501994703</v>
       </c>
       <c r="P17" t="n">
-        <v>2256.861452003519</v>
+        <v>2219.811712150205</v>
       </c>
       <c r="Q17" t="n">
-        <v>2900.088337616841</v>
+        <v>2730.934272863783</v>
       </c>
       <c r="R17" t="n">
-        <v>3000.906760630762</v>
+        <v>3000.906760630761</v>
       </c>
       <c r="S17" t="n">
-        <v>2954.570809629581</v>
+        <v>3000.906760630761</v>
       </c>
       <c r="T17" t="n">
-        <v>2954.570809629581</v>
+        <v>3000.906760630761</v>
       </c>
       <c r="U17" t="n">
-        <v>2954.570809629581</v>
+        <v>3000.906760630761</v>
       </c>
       <c r="V17" t="n">
-        <v>2954.570809629581</v>
+        <v>3000.906760630761</v>
       </c>
       <c r="W17" t="n">
-        <v>2630.298261472499</v>
+        <v>3000.906760630761</v>
       </c>
       <c r="X17" t="n">
-        <v>2630.298261472499</v>
+        <v>2581.764297210072</v>
       </c>
       <c r="Y17" t="n">
-        <v>2222.012137772152</v>
+        <v>2173.478173509725</v>
       </c>
     </row>
     <row r="18">
@@ -5585,37 +5585,37 @@
         <v>177.8007237671947</v>
       </c>
       <c r="G18" t="n">
-        <v>93.29180644768699</v>
+        <v>93.29180644768698</v>
       </c>
       <c r="H18" t="n">
-        <v>60.01813521261524</v>
+        <v>60.01813521261523</v>
       </c>
       <c r="I18" t="n">
-        <v>115.6479582793014</v>
+        <v>115.6479582793013</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7797334551063</v>
+        <v>279.6034169771365</v>
       </c>
       <c r="K18" t="n">
-        <v>535.4433213259495</v>
+        <v>418.2705432316098</v>
       </c>
       <c r="L18" t="n">
-        <v>721.8983851613435</v>
+        <v>604.7256070670038</v>
       </c>
       <c r="M18" t="n">
-        <v>939.4826501400469</v>
+        <v>822.3098720457072</v>
       </c>
       <c r="N18" t="n">
-        <v>1162.825723170549</v>
+        <v>1045.65294507621</v>
       </c>
       <c r="O18" t="n">
-        <v>1367.141001382419</v>
+        <v>1249.968223288079</v>
       </c>
       <c r="P18" t="n">
-        <v>1531.122024900556</v>
+        <v>1413.949246806217</v>
       </c>
       <c r="Q18" t="n">
-        <v>1640.738996476464</v>
+        <v>1523.566218382124</v>
       </c>
       <c r="R18" t="n">
         <v>1694.055992409275</v>
@@ -5652,16 +5652,16 @@
         <v>1109.720866076884</v>
       </c>
       <c r="C19" t="n">
-        <v>937.1591545601092</v>
+        <v>937.1591545601088</v>
       </c>
       <c r="D19" t="n">
-        <v>771.2811617616319</v>
+        <v>771.2811617616317</v>
       </c>
       <c r="E19" t="n">
-        <v>601.5231580123692</v>
+        <v>601.5231580123689</v>
       </c>
       <c r="F19" t="n">
-        <v>424.8161039741254</v>
+        <v>424.8161039741251</v>
       </c>
       <c r="G19" t="n">
         <v>259.9593825195703</v>
@@ -5670,40 +5670,40 @@
         <v>126.5880567752689</v>
       </c>
       <c r="I19" t="n">
-        <v>60.01813521261524</v>
+        <v>60.01813521261523</v>
       </c>
       <c r="J19" t="n">
         <v>197.4972888308884</v>
       </c>
       <c r="K19" t="n">
-        <v>555.8992057701342</v>
+        <v>323.223390272109</v>
       </c>
       <c r="L19" t="n">
-        <v>680.2753315707369</v>
+        <v>848.4681064350683</v>
       </c>
       <c r="M19" t="n">
-        <v>1252.612424230001</v>
+        <v>1420.805199094332</v>
       </c>
       <c r="N19" t="n">
-        <v>1805.041055403483</v>
+        <v>1973.233830267814</v>
       </c>
       <c r="O19" t="n">
-        <v>2326.469972305272</v>
+        <v>2494.662747169604</v>
       </c>
       <c r="P19" t="n">
-        <v>2761.049841498254</v>
+        <v>2929.242616362586</v>
       </c>
       <c r="Q19" t="n">
-        <v>2989.527431063108</v>
+        <v>2989.527431063107</v>
       </c>
       <c r="R19" t="n">
-        <v>3000.906760630762</v>
+        <v>3000.906760630761</v>
       </c>
       <c r="S19" t="n">
         <v>2854.466656447906</v>
       </c>
       <c r="T19" t="n">
-        <v>2611.725756882908</v>
+        <v>2611.725756882907</v>
       </c>
       <c r="U19" t="n">
         <v>2333.332822691628</v>
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1704.273321135018</v>
+        <v>720.471443812466</v>
       </c>
       <c r="C20" t="n">
-        <v>1266.130848318441</v>
+        <v>720.471443812466</v>
       </c>
       <c r="D20" t="n">
-        <v>830.2210634928856</v>
+        <v>720.471443812466</v>
       </c>
       <c r="E20" t="n">
-        <v>396.4463186511808</v>
+        <v>720.471443812466</v>
       </c>
       <c r="F20" t="n">
-        <v>60.01813521261524</v>
+        <v>292.6040142216737</v>
       </c>
       <c r="G20" t="n">
-        <v>60.01813521261524</v>
+        <v>60.01813521261523</v>
       </c>
       <c r="H20" t="n">
-        <v>60.01813521261524</v>
+        <v>60.01813521261523</v>
       </c>
       <c r="I20" t="n">
-        <v>121.4853847315786</v>
+        <v>121.4853847315785</v>
       </c>
       <c r="J20" t="n">
-        <v>257.7055129671508</v>
+        <v>558.4592407862907</v>
       </c>
       <c r="K20" t="n">
-        <v>947.7314225918894</v>
+        <v>762.6179015859569</v>
       </c>
       <c r="L20" t="n">
-        <v>1201.00829425757</v>
+        <v>1015.894773251638</v>
       </c>
       <c r="M20" t="n">
-        <v>1482.827615214219</v>
+        <v>1297.714094208287</v>
       </c>
       <c r="N20" t="n">
-        <v>2225.552038470333</v>
+        <v>1584.093546411043</v>
       </c>
       <c r="O20" t="n">
-        <v>2495.972034420214</v>
+        <v>2326.817969667157</v>
       </c>
       <c r="P20" t="n">
-        <v>2726.769244575717</v>
+        <v>2557.61517982266</v>
       </c>
       <c r="Q20" t="n">
-        <v>2900.088337616841</v>
+        <v>2730.934272863784</v>
       </c>
       <c r="R20" t="n">
         <v>3000.906760630762</v>
@@ -5782,22 +5782,22 @@
         <v>2954.570809629581</v>
       </c>
       <c r="T20" t="n">
-        <v>2954.570809629581</v>
+        <v>2741.67200607355</v>
       </c>
       <c r="U20" t="n">
-        <v>2954.570809629581</v>
+        <v>2741.67200607355</v>
       </c>
       <c r="V20" t="n">
-        <v>2954.570809629581</v>
+        <v>2379.055056007377</v>
       </c>
       <c r="W20" t="n">
-        <v>2549.715355040615</v>
+        <v>1974.19960141841</v>
       </c>
       <c r="X20" t="n">
-        <v>2130.572891619925</v>
+        <v>1555.05713799772</v>
       </c>
       <c r="Y20" t="n">
-        <v>2130.572891619925</v>
+        <v>1146.771014297374</v>
       </c>
     </row>
     <row r="21">
@@ -5822,34 +5822,34 @@
         <v>177.8007237671947</v>
       </c>
       <c r="G21" t="n">
-        <v>93.29180644768699</v>
+        <v>93.29180644768698</v>
       </c>
       <c r="H21" t="n">
-        <v>60.01813521261524</v>
+        <v>60.01813521261523</v>
       </c>
       <c r="I21" t="n">
         <v>115.6479582793014</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7797334551063</v>
+        <v>279.6034169771365</v>
       </c>
       <c r="K21" t="n">
-        <v>418.2705432316093</v>
+        <v>418.2705432316098</v>
       </c>
       <c r="L21" t="n">
-        <v>604.7256070670034</v>
+        <v>604.7256070670038</v>
       </c>
       <c r="M21" t="n">
-        <v>822.3098720457067</v>
+        <v>822.3098720457072</v>
       </c>
       <c r="N21" t="n">
-        <v>1045.652945076209</v>
+        <v>1045.65294507621</v>
       </c>
       <c r="O21" t="n">
         <v>1249.968223288079</v>
       </c>
       <c r="P21" t="n">
-        <v>1413.949246806216</v>
+        <v>1413.949246806217</v>
       </c>
       <c r="Q21" t="n">
         <v>1523.566218382124</v>
@@ -5889,7 +5889,7 @@
         <v>1109.720866076884</v>
       </c>
       <c r="C22" t="n">
-        <v>937.1591545601092</v>
+        <v>937.1591545601093</v>
       </c>
       <c r="D22" t="n">
         <v>771.2811617616323</v>
@@ -5901,34 +5901,34 @@
         <v>424.8161039741258</v>
       </c>
       <c r="G22" t="n">
-        <v>259.9593825195703</v>
+        <v>259.9593825195707</v>
       </c>
       <c r="H22" t="n">
         <v>126.5880567752689</v>
       </c>
       <c r="I22" t="n">
-        <v>60.01813521261524</v>
+        <v>60.01813521261523</v>
       </c>
       <c r="J22" t="n">
-        <v>110.9176036661985</v>
+        <v>197.4972888308884</v>
       </c>
       <c r="K22" t="n">
-        <v>194.5610660343089</v>
+        <v>323.2233902721094</v>
       </c>
       <c r="L22" t="n">
-        <v>680.2753315707369</v>
+        <v>848.4681064350688</v>
       </c>
       <c r="M22" t="n">
-        <v>1252.612424230001</v>
+        <v>1420.805199094333</v>
       </c>
       <c r="N22" t="n">
-        <v>1805.041055403483</v>
+        <v>1973.233830267815</v>
       </c>
       <c r="O22" t="n">
-        <v>2326.469972305272</v>
+        <v>2494.662747169604</v>
       </c>
       <c r="P22" t="n">
-        <v>2761.049841498254</v>
+        <v>2929.242616362586</v>
       </c>
       <c r="Q22" t="n">
         <v>2989.527431063108</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2508.780323424182</v>
+        <v>2508.780323424183</v>
       </c>
       <c r="C23" t="n">
-        <v>2070.637850607606</v>
+        <v>2070.637850607607</v>
       </c>
       <c r="D23" t="n">
-        <v>1634.72806578205</v>
+        <v>1634.728065782051</v>
       </c>
       <c r="E23" t="n">
-        <v>1200.953320940345</v>
+        <v>1200.953320940346</v>
       </c>
       <c r="F23" t="n">
-        <v>773.0858913495531</v>
+        <v>773.085891349554</v>
       </c>
       <c r="G23" t="n">
-        <v>373.3256210398487</v>
+        <v>373.3256210398488</v>
       </c>
       <c r="H23" t="n">
         <v>100.966138760802</v>
@@ -5989,52 +5989,52 @@
         <v>162.4333882797653</v>
       </c>
       <c r="J23" t="n">
-        <v>733.9082039682554</v>
+        <v>733.9082039682555</v>
       </c>
       <c r="K23" t="n">
-        <v>938.0668647679215</v>
+        <v>1772.4171567261</v>
       </c>
       <c r="L23" t="n">
-        <v>1191.343736433602</v>
+        <v>2025.69402839178</v>
       </c>
       <c r="M23" t="n">
-        <v>1473.163057390252</v>
+        <v>2307.513349348429</v>
       </c>
       <c r="N23" t="n">
-        <v>1759.542509593008</v>
+        <v>2593.892801551186</v>
       </c>
       <c r="O23" t="n">
-        <v>3008.998476757933</v>
+        <v>2999.409486284505</v>
       </c>
       <c r="P23" t="n">
-        <v>4058.516571273402</v>
+        <v>4058.516571273404</v>
       </c>
       <c r="Q23" t="n">
-        <v>4778.334450273122</v>
+        <v>4778.334450273123</v>
       </c>
       <c r="R23" t="n">
-        <v>5048.306938040098</v>
+        <v>5048.3069380401</v>
       </c>
       <c r="S23" t="n">
-        <v>5001.970987038917</v>
+        <v>5001.970987038919</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.072183482886</v>
+        <v>4789.072183482888</v>
       </c>
       <c r="U23" t="n">
-        <v>4529.980885685266</v>
+        <v>4529.980885685267</v>
       </c>
       <c r="V23" t="n">
-        <v>4167.363935619092</v>
+        <v>4167.363935619093</v>
       </c>
       <c r="W23" t="n">
-        <v>3762.508481030126</v>
+        <v>3762.508481030127</v>
       </c>
       <c r="X23" t="n">
-        <v>3343.366017609437</v>
+        <v>3343.366017609438</v>
       </c>
       <c r="Y23" t="n">
-        <v>2935.07989390909</v>
+        <v>2935.079893909091</v>
       </c>
     </row>
     <row r="24">
@@ -6059,7 +6059,7 @@
         <v>218.7487273153814</v>
       </c>
       <c r="G24" t="n">
-        <v>134.2398099958737</v>
+        <v>134.2398099958738</v>
       </c>
       <c r="H24" t="n">
         <v>100.966138760802</v>
@@ -6071,25 +6071,25 @@
         <v>237.727737003293</v>
       </c>
       <c r="K24" t="n">
-        <v>576.3913248741358</v>
+        <v>376.3948632577663</v>
       </c>
       <c r="L24" t="n">
-        <v>762.8463887095297</v>
+        <v>562.8499270931603</v>
       </c>
       <c r="M24" t="n">
-        <v>980.4306536882331</v>
+        <v>780.4341920718635</v>
       </c>
       <c r="N24" t="n">
-        <v>1203.773726718736</v>
+        <v>1003.777265102366</v>
       </c>
       <c r="O24" t="n">
-        <v>1408.089004930605</v>
+        <v>1208.092543314236</v>
       </c>
       <c r="P24" t="n">
-        <v>1572.070028448743</v>
+        <v>1372.073566832373</v>
       </c>
       <c r="Q24" t="n">
-        <v>1681.68700002465</v>
+        <v>1564.51422193031</v>
       </c>
       <c r="R24" t="n">
         <v>1735.003995957462</v>
@@ -6132,13 +6132,13 @@
         <v>812.2291653098187</v>
       </c>
       <c r="E25" t="n">
-        <v>642.4711615605559</v>
+        <v>642.471161560556</v>
       </c>
       <c r="F25" t="n">
-        <v>465.7641075223121</v>
+        <v>465.7641075223122</v>
       </c>
       <c r="G25" t="n">
-        <v>300.907386067757</v>
+        <v>300.9073860677571</v>
       </c>
       <c r="H25" t="n">
         <v>167.5360603234557</v>
@@ -6156,7 +6156,7 @@
         <v>1122.09192548128</v>
       </c>
       <c r="M25" t="n">
-        <v>1694.429018140544</v>
+        <v>1293.560427778188</v>
       </c>
       <c r="N25" t="n">
         <v>1845.98905895167</v>
@@ -6211,13 +6211,13 @@
         <v>1634.72806578205</v>
       </c>
       <c r="E26" t="n">
-        <v>1200.953320940345</v>
+        <v>1200.953320940346</v>
       </c>
       <c r="F26" t="n">
-        <v>773.0858913495531</v>
+        <v>773.0858913495533</v>
       </c>
       <c r="G26" t="n">
-        <v>373.3256210398486</v>
+        <v>373.3256210398487</v>
       </c>
       <c r="H26" t="n">
         <v>100.966138760802</v>
@@ -6229,16 +6229,16 @@
         <v>733.9082039682554</v>
       </c>
       <c r="K26" t="n">
-        <v>938.0668647679215</v>
+        <v>1772.4171567261</v>
       </c>
       <c r="L26" t="n">
-        <v>1191.343736433602</v>
+        <v>2025.69402839178</v>
       </c>
       <c r="M26" t="n">
-        <v>1473.163057390252</v>
+        <v>2307.513349348429</v>
       </c>
       <c r="N26" t="n">
-        <v>1759.542509593008</v>
+        <v>2593.892801551186</v>
       </c>
       <c r="O26" t="n">
         <v>2999.409486284505</v>
@@ -6253,10 +6253,10 @@
         <v>5048.306938040099</v>
       </c>
       <c r="S26" t="n">
-        <v>5001.970987038918</v>
+        <v>5001.970987038917</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.072183482887</v>
+        <v>4789.072183482886</v>
       </c>
       <c r="U26" t="n">
         <v>4529.980885685266</v>
@@ -6302,31 +6302,31 @@
         <v>100.966138760802</v>
       </c>
       <c r="I27" t="n">
-        <v>130.5322886670305</v>
+        <v>156.5959618274881</v>
       </c>
       <c r="J27" t="n">
-        <v>437.7241986196624</v>
+        <v>237.727737003293</v>
       </c>
       <c r="K27" t="n">
-        <v>576.3913248741358</v>
+        <v>376.3948632577662</v>
       </c>
       <c r="L27" t="n">
-        <v>762.8463887095297</v>
+        <v>562.8499270931603</v>
       </c>
       <c r="M27" t="n">
-        <v>980.4306536882331</v>
+        <v>780.4341920718635</v>
       </c>
       <c r="N27" t="n">
-        <v>1203.773726718736</v>
+        <v>1003.777265102366</v>
       </c>
       <c r="O27" t="n">
-        <v>1408.089004930605</v>
+        <v>1208.092543314236</v>
       </c>
       <c r="P27" t="n">
-        <v>1572.070028448743</v>
+        <v>1372.073566832373</v>
       </c>
       <c r="Q27" t="n">
-        <v>1681.68700002465</v>
+        <v>1564.51422193031</v>
       </c>
       <c r="R27" t="n">
         <v>1735.003995957462</v>
@@ -6387,7 +6387,7 @@
         <v>238.4452923790751</v>
       </c>
       <c r="K28" t="n">
-        <v>596.847209318321</v>
+        <v>596.8472093183209</v>
       </c>
       <c r="L28" t="n">
         <v>1122.09192548128</v>
@@ -6396,13 +6396,13 @@
         <v>1694.429018140544</v>
       </c>
       <c r="N28" t="n">
-        <v>1845.98905895167</v>
+        <v>2246.857649314026</v>
       </c>
       <c r="O28" t="n">
-        <v>2367.41797585346</v>
+        <v>2768.286566215816</v>
       </c>
       <c r="P28" t="n">
-        <v>2801.997845046441</v>
+        <v>2970.190619910774</v>
       </c>
       <c r="Q28" t="n">
         <v>3030.475434611295</v>
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2508.780323424182</v>
+        <v>2508.780323424183</v>
       </c>
       <c r="C29" t="n">
-        <v>2070.637850607606</v>
+        <v>2070.637850607607</v>
       </c>
       <c r="D29" t="n">
         <v>1634.72806578205</v>
@@ -6505,10 +6505,10 @@
         <v>3762.508481030127</v>
       </c>
       <c r="X29" t="n">
-        <v>3343.366017609437</v>
+        <v>3343.366017609438</v>
       </c>
       <c r="Y29" t="n">
-        <v>2935.07989390909</v>
+        <v>2935.079893909091</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3911.102672471707</v>
+        <v>597.7997303890705</v>
       </c>
       <c r="C30" t="n">
-        <v>3804.646211308349</v>
+        <v>491.3432692257128</v>
       </c>
       <c r="D30" t="n">
-        <v>3709.555922454902</v>
+        <v>396.2529803722661</v>
       </c>
       <c r="E30" t="n">
-        <v>3615.435507781856</v>
+        <v>302.1325656992198</v>
       </c>
       <c r="F30" t="n">
-        <v>3532.051669398018</v>
+        <v>218.7487273153814</v>
       </c>
       <c r="G30" t="n">
-        <v>3447.54275207851</v>
+        <v>134.2398099958737</v>
       </c>
       <c r="H30" t="n">
-        <v>3414.269080843438</v>
+        <v>100.966138760802</v>
       </c>
       <c r="I30" t="n">
-        <v>3469.898903910124</v>
+        <v>156.5959618274881</v>
       </c>
       <c r="J30" t="n">
-        <v>3551.030679085929</v>
+        <v>320.5514205253227</v>
       </c>
       <c r="K30" t="n">
-        <v>3889.694266956773</v>
+        <v>459.218546779796</v>
       </c>
       <c r="L30" t="n">
-        <v>4076.149330792168</v>
+        <v>645.67361061519</v>
       </c>
       <c r="M30" t="n">
-        <v>4293.733595770871</v>
+        <v>863.2578755938933</v>
       </c>
       <c r="N30" t="n">
-        <v>4517.076668801374</v>
+        <v>1086.600948624396</v>
       </c>
       <c r="O30" t="n">
-        <v>4721.391947013243</v>
+        <v>1290.916226836266</v>
       </c>
       <c r="P30" t="n">
-        <v>4885.37297053138</v>
+        <v>1454.897250354403</v>
       </c>
       <c r="Q30" t="n">
-        <v>4994.989942107288</v>
+        <v>1564.51422193031</v>
       </c>
       <c r="R30" t="n">
-        <v>5048.306938040099</v>
+        <v>1735.003995957462</v>
       </c>
       <c r="S30" t="n">
-        <v>5001.126018798115</v>
+        <v>1687.823076715478</v>
       </c>
       <c r="T30" t="n">
-        <v>4874.478964816214</v>
+        <v>1561.176022733577</v>
       </c>
       <c r="U30" t="n">
-        <v>4698.200060738176</v>
+        <v>1384.89711865554</v>
       </c>
       <c r="V30" t="n">
-        <v>4499.082542800175</v>
+        <v>1185.779600717539</v>
       </c>
       <c r="W30" t="n">
-        <v>4313.759788533369</v>
+        <v>1000.456846450733</v>
       </c>
       <c r="X30" t="n">
-        <v>4158.892352772249</v>
+        <v>845.5894106896129</v>
       </c>
       <c r="Y30" t="n">
-        <v>4032.40657355147</v>
+        <v>719.1036314688337</v>
       </c>
     </row>
     <row r="31">
@@ -6621,25 +6621,25 @@
         <v>100.966138760802</v>
       </c>
       <c r="J31" t="n">
-        <v>151.8656072143853</v>
+        <v>238.4452923790751</v>
       </c>
       <c r="K31" t="n">
-        <v>235.5090695824956</v>
+        <v>596.8472093183209</v>
       </c>
       <c r="L31" t="n">
-        <v>760.7537857454549</v>
+        <v>1122.09192548128</v>
       </c>
       <c r="M31" t="n">
-        <v>1333.090878404719</v>
+        <v>1293.560427778188</v>
       </c>
       <c r="N31" t="n">
-        <v>1885.519509578201</v>
+        <v>1845.98905895167</v>
       </c>
       <c r="O31" t="n">
-        <v>2406.94842647999</v>
+        <v>2367.41797585346</v>
       </c>
       <c r="P31" t="n">
-        <v>2841.528295672972</v>
+        <v>2801.997845046441</v>
       </c>
       <c r="Q31" t="n">
         <v>3030.475434611295</v>
@@ -6688,10 +6688,10 @@
         <v>1200.953320940346</v>
       </c>
       <c r="F32" t="n">
-        <v>773.0858913495545</v>
+        <v>773.085891349554</v>
       </c>
       <c r="G32" t="n">
-        <v>373.3256210398495</v>
+        <v>373.3256210398487</v>
       </c>
       <c r="H32" t="n">
         <v>100.966138760802</v>
@@ -6703,16 +6703,16 @@
         <v>733.9082039682554</v>
       </c>
       <c r="K32" t="n">
-        <v>938.0668647679215</v>
+        <v>1772.4171567261</v>
       </c>
       <c r="L32" t="n">
-        <v>1191.343736433602</v>
+        <v>2025.69402839178</v>
       </c>
       <c r="M32" t="n">
-        <v>1473.163057390252</v>
+        <v>2307.513349348429</v>
       </c>
       <c r="N32" t="n">
-        <v>1759.542509593008</v>
+        <v>2593.892801551186</v>
       </c>
       <c r="O32" t="n">
         <v>2999.409486284505</v>
@@ -6727,10 +6727,10 @@
         <v>5048.306938040099</v>
       </c>
       <c r="S32" t="n">
-        <v>5001.970987038919</v>
+        <v>5001.970987038918</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.072183482888</v>
+        <v>4789.072183482887</v>
       </c>
       <c r="U32" t="n">
         <v>4529.980885685267</v>
@@ -6776,31 +6776,31 @@
         <v>100.966138760802</v>
       </c>
       <c r="I33" t="n">
-        <v>130.5322886670305</v>
+        <v>156.5959618274881</v>
       </c>
       <c r="J33" t="n">
-        <v>211.6640638428354</v>
+        <v>237.727737003293</v>
       </c>
       <c r="K33" t="n">
-        <v>576.3913248741358</v>
+        <v>376.3948632577662</v>
       </c>
       <c r="L33" t="n">
-        <v>762.8463887095297</v>
+        <v>562.8499270931603</v>
       </c>
       <c r="M33" t="n">
-        <v>980.4306536882331</v>
+        <v>780.4341920718635</v>
       </c>
       <c r="N33" t="n">
-        <v>1203.773726718736</v>
+        <v>1003.777265102366</v>
       </c>
       <c r="O33" t="n">
-        <v>1408.089004930605</v>
+        <v>1208.092543314236</v>
       </c>
       <c r="P33" t="n">
-        <v>1572.070028448743</v>
+        <v>1372.073566832373</v>
       </c>
       <c r="Q33" t="n">
-        <v>1681.68700002465</v>
+        <v>1564.51422193031</v>
       </c>
       <c r="R33" t="n">
         <v>1735.003995957462</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3157.121043486222</v>
+        <v>1150.668869625071</v>
       </c>
       <c r="C34" t="n">
-        <v>2984.559331969447</v>
+        <v>978.1071581082959</v>
       </c>
       <c r="D34" t="n">
-        <v>2818.681339170969</v>
+        <v>812.2291653098187</v>
       </c>
       <c r="E34" t="n">
-        <v>2648.923335421707</v>
+        <v>642.4711615605559</v>
       </c>
       <c r="F34" t="n">
-        <v>2472.216281383463</v>
+        <v>465.7641075223121</v>
       </c>
       <c r="G34" t="n">
-        <v>2307.359559928908</v>
+        <v>300.907386067757</v>
       </c>
       <c r="H34" t="n">
-        <v>2173.988234184606</v>
+        <v>167.5360603234557</v>
       </c>
       <c r="I34" t="n">
-        <v>2107.418312621953</v>
+        <v>100.966138760802</v>
       </c>
       <c r="J34" t="n">
-        <v>2244.897466240226</v>
+        <v>238.4452923790751</v>
       </c>
       <c r="K34" t="n">
-        <v>2603.299383179472</v>
+        <v>596.8472093183209</v>
       </c>
       <c r="L34" t="n">
-        <v>3128.544099342431</v>
+        <v>1122.09192548128</v>
       </c>
       <c r="M34" t="n">
-        <v>3700.881192001695</v>
+        <v>1293.560427778188</v>
       </c>
       <c r="N34" t="n">
-        <v>3852.44123281282</v>
+        <v>1845.98905895167</v>
       </c>
       <c r="O34" t="n">
-        <v>4373.870149714609</v>
+        <v>2367.41797585346</v>
       </c>
       <c r="P34" t="n">
-        <v>4808.450018907591</v>
+        <v>2801.997845046441</v>
       </c>
       <c r="Q34" t="n">
-        <v>5036.927608472445</v>
+        <v>3030.475434611295</v>
       </c>
       <c r="R34" t="n">
-        <v>5048.306938040099</v>
+        <v>3041.854764178949</v>
       </c>
       <c r="S34" t="n">
-        <v>4901.866833857243</v>
+        <v>2895.414659996093</v>
       </c>
       <c r="T34" t="n">
-        <v>4659.125934292245</v>
+        <v>2652.673760431095</v>
       </c>
       <c r="U34" t="n">
-        <v>4380.733000100966</v>
+        <v>2374.280826239815</v>
       </c>
       <c r="V34" t="n">
-        <v>4093.777491971397</v>
+        <v>2087.325318110246</v>
       </c>
       <c r="W34" t="n">
-        <v>3821.751087557688</v>
+        <v>1815.298913696538</v>
       </c>
       <c r="X34" t="n">
-        <v>3576.359332891101</v>
+        <v>1569.90715902995</v>
       </c>
       <c r="Y34" t="n">
-        <v>3348.939662205209</v>
+        <v>1342.487488344058</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2029.689847059419</v>
+        <v>2068.072049566291</v>
       </c>
       <c r="C35" t="n">
-        <v>2029.689847059419</v>
+        <v>1629.929576749715</v>
       </c>
       <c r="D35" t="n">
-        <v>1593.780062233864</v>
+        <v>1194.019791924159</v>
       </c>
       <c r="E35" t="n">
-        <v>1160.005317392159</v>
+        <v>760.2450470824542</v>
       </c>
       <c r="F35" t="n">
-        <v>732.1378878013666</v>
+        <v>332.377617491662</v>
       </c>
       <c r="G35" t="n">
         <v>332.377617491662</v>
@@ -6937,52 +6937,52 @@
         <v>121.4853847315786</v>
       </c>
       <c r="J35" t="n">
-        <v>484.2648821339284</v>
+        <v>257.7055129671507</v>
       </c>
       <c r="K35" t="n">
-        <v>688.4235429335946</v>
+        <v>461.8641737668168</v>
       </c>
       <c r="L35" t="n">
-        <v>941.7004145992751</v>
+        <v>740.1031919581058</v>
       </c>
       <c r="M35" t="n">
-        <v>1223.519735555924</v>
+        <v>1482.827615214219</v>
       </c>
       <c r="N35" t="n">
-        <v>1509.899187758681</v>
+        <v>2225.552038470333</v>
       </c>
       <c r="O35" t="n">
-        <v>1780.319183708563</v>
+        <v>2495.972034420214</v>
       </c>
       <c r="P35" t="n">
-        <v>2011.116393864065</v>
+        <v>2726.769244575717</v>
       </c>
       <c r="Q35" t="n">
-        <v>2730.934272863784</v>
+        <v>2900.088337616841</v>
       </c>
       <c r="R35" t="n">
         <v>3000.906760630762</v>
       </c>
       <c r="S35" t="n">
-        <v>2954.570809629581</v>
+        <v>3000.906760630762</v>
       </c>
       <c r="T35" t="n">
-        <v>2741.672006073551</v>
+        <v>2788.007957074732</v>
       </c>
       <c r="U35" t="n">
-        <v>2482.58070827593</v>
+        <v>2528.916659277111</v>
       </c>
       <c r="V35" t="n">
-        <v>2482.58070827593</v>
+        <v>2528.916659277111</v>
       </c>
       <c r="W35" t="n">
-        <v>2437.975970759766</v>
+        <v>2124.061204688144</v>
       </c>
       <c r="X35" t="n">
-        <v>2437.975970759766</v>
+        <v>2068.072049566291</v>
       </c>
       <c r="Y35" t="n">
-        <v>2029.689847059419</v>
+        <v>2068.072049566291</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>60.01813521261524</v>
       </c>
       <c r="I36" t="n">
-        <v>89.58428511884375</v>
+        <v>115.6479582793014</v>
       </c>
       <c r="J36" t="n">
-        <v>396.7761950714762</v>
+        <v>279.6034169771365</v>
       </c>
       <c r="K36" t="n">
-        <v>535.4433213259495</v>
+        <v>418.2705432316098</v>
       </c>
       <c r="L36" t="n">
-        <v>721.8983851613435</v>
+        <v>604.7256070670038</v>
       </c>
       <c r="M36" t="n">
-        <v>939.4826501400469</v>
+        <v>822.3098720457072</v>
       </c>
       <c r="N36" t="n">
-        <v>1162.825723170549</v>
+        <v>1045.65294507621</v>
       </c>
       <c r="O36" t="n">
-        <v>1367.141001382419</v>
+        <v>1249.968223288079</v>
       </c>
       <c r="P36" t="n">
-        <v>1531.122024900556</v>
+        <v>1413.949246806217</v>
       </c>
       <c r="Q36" t="n">
-        <v>1640.738996476464</v>
+        <v>1523.566218382124</v>
       </c>
       <c r="R36" t="n">
         <v>1694.055992409275</v>
@@ -7074,46 +7074,46 @@
         <v>1109.720866076884</v>
       </c>
       <c r="C37" t="n">
-        <v>937.1591545601091</v>
+        <v>937.1591545601092</v>
       </c>
       <c r="D37" t="n">
         <v>771.2811617616319</v>
       </c>
       <c r="E37" t="n">
-        <v>601.5231580123691</v>
+        <v>601.5231580123692</v>
       </c>
       <c r="F37" t="n">
-        <v>424.8161039741253</v>
+        <v>424.8161039741254</v>
       </c>
       <c r="G37" t="n">
-        <v>259.9593825195702</v>
+        <v>259.9593825195703</v>
       </c>
       <c r="H37" t="n">
-        <v>126.5880567752688</v>
+        <v>126.5880567752689</v>
       </c>
       <c r="I37" t="n">
         <v>60.01813521261524</v>
       </c>
       <c r="J37" t="n">
-        <v>110.9176036661985</v>
+        <v>197.4972888308884</v>
       </c>
       <c r="K37" t="n">
-        <v>469.3195206054444</v>
+        <v>555.8992057701342</v>
       </c>
       <c r="L37" t="n">
-        <v>994.5642367684037</v>
+        <v>1081.143921933093</v>
       </c>
       <c r="M37" t="n">
-        <v>1566.901329427668</v>
+        <v>1653.481014592357</v>
       </c>
       <c r="N37" t="n">
-        <v>2119.32996060115</v>
+        <v>1805.041055403483</v>
       </c>
       <c r="O37" t="n">
-        <v>2640.758877502939</v>
+        <v>2326.469972305272</v>
       </c>
       <c r="P37" t="n">
-        <v>2929.242616362586</v>
+        <v>2761.049841498254</v>
       </c>
       <c r="Q37" t="n">
         <v>2989.527431063108</v>
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1361.93782244554</v>
+        <v>2269.179941347053</v>
       </c>
       <c r="C38" t="n">
-        <v>923.795349628963</v>
+        <v>2029.689847059419</v>
       </c>
       <c r="D38" t="n">
-        <v>487.8855648034075</v>
+        <v>1593.780062233864</v>
       </c>
       <c r="E38" t="n">
-        <v>487.8855648034075</v>
+        <v>1160.005317392159</v>
       </c>
       <c r="F38" t="n">
-        <v>60.01813521261524</v>
+        <v>732.1378878013666</v>
       </c>
       <c r="G38" t="n">
-        <v>60.01813521261524</v>
+        <v>332.377617491662</v>
       </c>
       <c r="H38" t="n">
         <v>60.01813521261524</v>
@@ -7174,28 +7174,28 @@
         <v>121.4853847315786</v>
       </c>
       <c r="J38" t="n">
-        <v>661.3519703891326</v>
+        <v>574.4186970391664</v>
       </c>
       <c r="K38" t="n">
-        <v>1404.076393645246</v>
+        <v>778.5773578388325</v>
       </c>
       <c r="L38" t="n">
-        <v>1657.353265310927</v>
+        <v>1031.854229504513</v>
       </c>
       <c r="M38" t="n">
-        <v>1939.172586267576</v>
+        <v>1313.673550461162</v>
       </c>
       <c r="N38" t="n">
-        <v>2225.552038470333</v>
+        <v>2056.397973717276</v>
       </c>
       <c r="O38" t="n">
-        <v>2495.972034420214</v>
+        <v>2326.817969667157</v>
       </c>
       <c r="P38" t="n">
-        <v>2726.769244575717</v>
+        <v>2557.61517982266</v>
       </c>
       <c r="Q38" t="n">
-        <v>2900.088337616841</v>
+        <v>2730.934272863784</v>
       </c>
       <c r="R38" t="n">
         <v>3000.906760630762</v>
@@ -7213,13 +7213,13 @@
         <v>2695.479511831961</v>
       </c>
       <c r="W38" t="n">
-        <v>2615.665980051484</v>
+        <v>2695.479511831961</v>
       </c>
       <c r="X38" t="n">
-        <v>2196.523516630794</v>
+        <v>2695.479511831961</v>
       </c>
       <c r="Y38" t="n">
-        <v>1788.237392930448</v>
+        <v>2695.479511831961</v>
       </c>
     </row>
     <row r="39">
@@ -7253,16 +7253,16 @@
         <v>89.58428511884375</v>
       </c>
       <c r="J39" t="n">
-        <v>396.7761950714762</v>
+        <v>170.7160602946487</v>
       </c>
       <c r="K39" t="n">
-        <v>535.4433213259495</v>
+        <v>309.3831865491219</v>
       </c>
       <c r="L39" t="n">
-        <v>721.8983851613435</v>
+        <v>495.8382503845159</v>
       </c>
       <c r="M39" t="n">
-        <v>939.4826501400469</v>
+        <v>713.4225153632192</v>
       </c>
       <c r="N39" t="n">
         <v>1162.825723170549</v>
@@ -7311,16 +7311,16 @@
         <v>1109.720866076884</v>
       </c>
       <c r="C40" t="n">
-        <v>937.1591545601092</v>
+        <v>937.1591545601091</v>
       </c>
       <c r="D40" t="n">
         <v>771.2811617616319</v>
       </c>
       <c r="E40" t="n">
-        <v>601.5231580123692</v>
+        <v>601.5231580123691</v>
       </c>
       <c r="F40" t="n">
-        <v>424.8161039741254</v>
+        <v>424.8161039741253</v>
       </c>
       <c r="G40" t="n">
         <v>259.9593825195703</v>
@@ -7335,22 +7335,22 @@
         <v>197.4972888308884</v>
       </c>
       <c r="K40" t="n">
-        <v>555.8992057701342</v>
+        <v>281.1407511989987</v>
       </c>
       <c r="L40" t="n">
-        <v>680.2753315707369</v>
+        <v>806.3854673619579</v>
       </c>
       <c r="M40" t="n">
-        <v>1252.612424230001</v>
+        <v>1378.722560021222</v>
       </c>
       <c r="N40" t="n">
-        <v>1805.041055403483</v>
+        <v>1931.151191194704</v>
       </c>
       <c r="O40" t="n">
-        <v>2326.469972305272</v>
+        <v>2452.580108096493</v>
       </c>
       <c r="P40" t="n">
-        <v>2761.049841498254</v>
+        <v>2887.159977289475</v>
       </c>
       <c r="Q40" t="n">
         <v>2989.527431063108</v>
@@ -7362,19 +7362,19 @@
         <v>2854.466656447907</v>
       </c>
       <c r="T40" t="n">
-        <v>2611.725756882909</v>
+        <v>2611.725756882908</v>
       </c>
       <c r="U40" t="n">
         <v>2333.332822691629</v>
       </c>
       <c r="V40" t="n">
-        <v>2046.37731456206</v>
+        <v>2046.377314562059</v>
       </c>
       <c r="W40" t="n">
         <v>1774.350910148351</v>
       </c>
       <c r="X40" t="n">
-        <v>1528.959155481764</v>
+        <v>1528.959155481763</v>
       </c>
       <c r="Y40" t="n">
         <v>1301.539484795871</v>
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1346.172891024913</v>
+        <v>1367.218155693851</v>
       </c>
       <c r="C41" t="n">
-        <v>908.0304182083366</v>
+        <v>929.0756828772746</v>
       </c>
       <c r="D41" t="n">
-        <v>472.1206333827812</v>
+        <v>905.895378224486</v>
       </c>
       <c r="E41" t="n">
         <v>472.1206333827812</v>
       </c>
       <c r="F41" t="n">
-        <v>44.25320379198894</v>
+        <v>44.25320379198897</v>
       </c>
       <c r="G41" t="n">
-        <v>44.25320379198894</v>
+        <v>44.25320379198897</v>
       </c>
       <c r="H41" t="n">
-        <v>44.25320379198894</v>
+        <v>44.25320379198897</v>
       </c>
       <c r="I41" t="n">
         <v>105.7204533109523</v>
       </c>
       <c r="J41" t="n">
-        <v>242.5170970612075</v>
+        <v>241.9405815465245</v>
       </c>
       <c r="K41" t="n">
-        <v>446.6757578608737</v>
+        <v>446.0992423461906</v>
       </c>
       <c r="L41" t="n">
-        <v>699.9526295265542</v>
+        <v>699.3761140118711</v>
       </c>
       <c r="M41" t="n">
-        <v>981.7719504832036</v>
+        <v>981.1954349685203</v>
       </c>
       <c r="N41" t="n">
-        <v>1268.15140268596</v>
+        <v>1267.574887171277</v>
       </c>
       <c r="O41" t="n">
-        <v>1538.571398635842</v>
+        <v>1537.994883121159</v>
       </c>
       <c r="P41" t="n">
-        <v>1769.368608791344</v>
+        <v>1768.792093276661</v>
       </c>
       <c r="Q41" t="n">
-        <v>1942.687701832469</v>
+        <v>1942.68770183247</v>
       </c>
       <c r="R41" t="n">
-        <v>2212.660189599447</v>
+        <v>2212.660189599448</v>
       </c>
       <c r="S41" t="n">
-        <v>2212.660189599447</v>
+        <v>2212.660189599448</v>
       </c>
       <c r="T41" t="n">
-        <v>2212.660189599447</v>
+        <v>2212.660189599448</v>
       </c>
       <c r="U41" t="n">
-        <v>2212.660189599447</v>
+        <v>2212.660189599448</v>
       </c>
       <c r="V41" t="n">
-        <v>2212.660189599447</v>
+        <v>2212.660189599448</v>
       </c>
       <c r="W41" t="n">
-        <v>2180.758585210168</v>
+        <v>2212.660189599448</v>
       </c>
       <c r="X41" t="n">
-        <v>2180.758585210168</v>
+        <v>1793.517726178759</v>
       </c>
       <c r="Y41" t="n">
-        <v>1772.472461509821</v>
+        <v>1793.517726178759</v>
       </c>
     </row>
     <row r="42">
@@ -7481,37 +7481,37 @@
         <v>162.0357923465684</v>
       </c>
       <c r="G42" t="n">
-        <v>77.5268750270607</v>
+        <v>77.52687502706073</v>
       </c>
       <c r="H42" t="n">
-        <v>44.25320379198894</v>
+        <v>44.25320379198897</v>
       </c>
       <c r="I42" t="n">
-        <v>73.81935369821747</v>
+        <v>73.81935369821748</v>
       </c>
       <c r="J42" t="n">
-        <v>263.8384855565096</v>
+        <v>154.9511288740224</v>
       </c>
       <c r="K42" t="n">
-        <v>402.5056118109829</v>
+        <v>293.6182551284957</v>
       </c>
       <c r="L42" t="n">
-        <v>588.9606756463769</v>
+        <v>706.1334537407171</v>
       </c>
       <c r="M42" t="n">
-        <v>806.5449406250802</v>
+        <v>923.7177187194204</v>
       </c>
       <c r="N42" t="n">
-        <v>1029.888013655583</v>
+        <v>1147.060791749923</v>
       </c>
       <c r="O42" t="n">
-        <v>1234.203291867452</v>
+        <v>1351.376069961793</v>
       </c>
       <c r="P42" t="n">
-        <v>1398.18431538559</v>
+        <v>1515.35709347993</v>
       </c>
       <c r="Q42" t="n">
-        <v>1507.801286961497</v>
+        <v>1624.974065055837</v>
       </c>
       <c r="R42" t="n">
         <v>1678.291060988649</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>717.3076333110591</v>
+        <v>728.1366945508256</v>
       </c>
       <c r="C43" t="n">
-        <v>544.7459217942841</v>
+        <v>555.5749830340505</v>
       </c>
       <c r="D43" t="n">
-        <v>378.8679289958068</v>
+        <v>555.5749830340505</v>
       </c>
       <c r="E43" t="n">
-        <v>209.109925246544</v>
+        <v>385.8169792847879</v>
       </c>
       <c r="F43" t="n">
-        <v>209.109925246544</v>
+        <v>209.1099252465441</v>
       </c>
       <c r="G43" t="n">
-        <v>44.25320379198894</v>
+        <v>44.25320379198897</v>
       </c>
       <c r="H43" t="n">
-        <v>44.25320379198894</v>
+        <v>44.25320379198897</v>
       </c>
       <c r="I43" t="n">
-        <v>44.25320379198894</v>
+        <v>44.25320379198897</v>
       </c>
       <c r="J43" t="n">
-        <v>95.15267224557221</v>
+        <v>95.15267224557223</v>
       </c>
       <c r="K43" t="n">
-        <v>453.5545891848181</v>
+        <v>178.7961346136826</v>
       </c>
       <c r="L43" t="n">
-        <v>978.7993053477774</v>
+        <v>437.2273593551165</v>
       </c>
       <c r="M43" t="n">
-        <v>1526.43270227364</v>
+        <v>984.8607562809799</v>
       </c>
       <c r="N43" t="n">
-        <v>1783.970627568291</v>
+        <v>1532.494153206843</v>
       </c>
       <c r="O43" t="n">
-        <v>1885.730295244299</v>
+        <v>2053.923070108633</v>
       </c>
       <c r="P43" t="n">
-        <v>1972.803270466939</v>
+        <v>2140.996045331272</v>
       </c>
       <c r="Q43" t="n">
-        <v>2201.280860031793</v>
+        <v>2201.280860031794</v>
       </c>
       <c r="R43" t="n">
-        <v>2212.660189599447</v>
+        <v>2212.660189599448</v>
       </c>
       <c r="S43" t="n">
-        <v>2212.660189599447</v>
+        <v>2066.220085416592</v>
       </c>
       <c r="T43" t="n">
-        <v>1973.920769450495</v>
+        <v>1823.479185851594</v>
       </c>
       <c r="U43" t="n">
-        <v>1695.527835259216</v>
+        <v>1823.479185851594</v>
       </c>
       <c r="V43" t="n">
-        <v>1408.572327129647</v>
+        <v>1664.793143036</v>
       </c>
       <c r="W43" t="n">
-        <v>1136.545922715938</v>
+        <v>1392.766738622292</v>
       </c>
       <c r="X43" t="n">
-        <v>1136.545922715938</v>
+        <v>1147.374983955704</v>
       </c>
       <c r="Y43" t="n">
-        <v>909.1262520300463</v>
+        <v>919.9553132698127</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1320.882204692669</v>
+        <v>1346.172891024913</v>
       </c>
       <c r="C44" t="n">
-        <v>1320.882204692669</v>
+        <v>908.0304182083366</v>
       </c>
       <c r="D44" t="n">
-        <v>1178.254860503533</v>
+        <v>472.1206333827812</v>
       </c>
       <c r="E44" t="n">
-        <v>744.480115661828</v>
+        <v>472.1206333827812</v>
       </c>
       <c r="F44" t="n">
-        <v>316.6126860710357</v>
+        <v>44.25320379198897</v>
       </c>
       <c r="G44" t="n">
-        <v>316.6126860710357</v>
+        <v>44.25320379198897</v>
       </c>
       <c r="H44" t="n">
-        <v>44.25320379198894</v>
+        <v>44.25320379198897</v>
       </c>
       <c r="I44" t="n">
         <v>105.7204533109523</v>
       </c>
       <c r="J44" t="n">
-        <v>241.9405815465245</v>
+        <v>411.6711618142661</v>
       </c>
       <c r="K44" t="n">
-        <v>446.0992423461906</v>
+        <v>615.8298226139323</v>
       </c>
       <c r="L44" t="n">
-        <v>699.3761140118711</v>
+        <v>869.1066942796127</v>
       </c>
       <c r="M44" t="n">
-        <v>981.1954349685204</v>
+        <v>1150.926015236262</v>
       </c>
       <c r="N44" t="n">
-        <v>1267.574887171277</v>
+        <v>1437.305467439019</v>
       </c>
       <c r="O44" t="n">
-        <v>1537.994883121159</v>
+        <v>1707.7254633889</v>
       </c>
       <c r="P44" t="n">
-        <v>1768.792093276661</v>
+        <v>1938.522673544403</v>
       </c>
       <c r="Q44" t="n">
-        <v>2111.841766585526</v>
+        <v>2111.841766585527</v>
       </c>
       <c r="R44" t="n">
-        <v>2212.660189599447</v>
+        <v>2212.660189599448</v>
       </c>
       <c r="S44" t="n">
-        <v>2166.324238598266</v>
+        <v>2212.660189599448</v>
       </c>
       <c r="T44" t="n">
-        <v>2166.324238598266</v>
+        <v>2212.660189599448</v>
       </c>
       <c r="U44" t="n">
-        <v>2166.324238598266</v>
+        <v>2212.660189599448</v>
       </c>
       <c r="V44" t="n">
-        <v>2166.324238598266</v>
+        <v>1850.043239533275</v>
       </c>
       <c r="W44" t="n">
-        <v>2166.324238598266</v>
+        <v>1850.043239533275</v>
       </c>
       <c r="X44" t="n">
-        <v>1747.181775177577</v>
+        <v>1430.900776112585</v>
       </c>
       <c r="Y44" t="n">
-        <v>1747.181775177577</v>
+        <v>1346.172891024913</v>
       </c>
     </row>
     <row r="45">
@@ -7718,34 +7718,34 @@
         <v>162.0357923465684</v>
       </c>
       <c r="G45" t="n">
-        <v>77.5268750270607</v>
+        <v>77.52687502706073</v>
       </c>
       <c r="H45" t="n">
-        <v>44.25320379198894</v>
+        <v>44.25320379198897</v>
       </c>
       <c r="I45" t="n">
-        <v>99.88302685867507</v>
+        <v>73.81935369821748</v>
       </c>
       <c r="J45" t="n">
-        <v>181.01480203448</v>
+        <v>154.9511288740224</v>
       </c>
       <c r="K45" t="n">
-        <v>319.6819282889533</v>
+        <v>519.6783899053231</v>
       </c>
       <c r="L45" t="n">
-        <v>506.1369921243473</v>
+        <v>706.1334537407171</v>
       </c>
       <c r="M45" t="n">
-        <v>723.7212571030507</v>
+        <v>923.7177187194204</v>
       </c>
       <c r="N45" t="n">
-        <v>947.0643301335532</v>
+        <v>1147.060791749923</v>
       </c>
       <c r="O45" t="n">
-        <v>1151.379608345423</v>
+        <v>1351.376069961793</v>
       </c>
       <c r="P45" t="n">
-        <v>1315.36063186356</v>
+        <v>1515.35709347993</v>
       </c>
       <c r="Q45" t="n">
         <v>1624.974065055837</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1093.955934656258</v>
+        <v>894.0146873493029</v>
       </c>
       <c r="C46" t="n">
-        <v>921.394223139483</v>
+        <v>721.4529758325278</v>
       </c>
       <c r="D46" t="n">
-        <v>755.5162303410057</v>
+        <v>555.5749830340505</v>
       </c>
       <c r="E46" t="n">
-        <v>585.7582265917429</v>
+        <v>385.8169792847879</v>
       </c>
       <c r="F46" t="n">
-        <v>409.0511725534991</v>
+        <v>209.1099252465441</v>
       </c>
       <c r="G46" t="n">
-        <v>244.194451098944</v>
+        <v>44.25320379198897</v>
       </c>
       <c r="H46" t="n">
-        <v>110.8231253546426</v>
+        <v>44.25320379198897</v>
       </c>
       <c r="I46" t="n">
-        <v>44.25320379198894</v>
+        <v>44.25320379198897</v>
       </c>
       <c r="J46" t="n">
-        <v>181.732357410262</v>
+        <v>95.15267224557223</v>
       </c>
       <c r="K46" t="n">
-        <v>540.134274349508</v>
+        <v>178.7961346136826</v>
       </c>
       <c r="L46" t="n">
-        <v>1065.378990512467</v>
+        <v>704.0408507766419</v>
       </c>
       <c r="M46" t="n">
-        <v>1613.012387438331</v>
+        <v>816.8940762549929</v>
       </c>
       <c r="N46" t="n">
-        <v>1723.182215454168</v>
+        <v>1364.527473180856</v>
       </c>
       <c r="O46" t="n">
-        <v>1824.941883130176</v>
+        <v>1885.956390082646</v>
       </c>
       <c r="P46" t="n">
-        <v>2140.996045331271</v>
+        <v>2140.996045331272</v>
       </c>
       <c r="Q46" t="n">
-        <v>2201.280860031793</v>
+        <v>2201.280860031794</v>
       </c>
       <c r="R46" t="n">
-        <v>2212.660189599447</v>
+        <v>2212.660189599448</v>
       </c>
       <c r="S46" t="n">
-        <v>2212.660189599447</v>
+        <v>2066.220085416592</v>
       </c>
       <c r="T46" t="n">
-        <v>1969.919290034448</v>
+        <v>2066.220085416592</v>
       </c>
       <c r="U46" t="n">
-        <v>1818.121816171402</v>
+        <v>1787.827151225313</v>
       </c>
       <c r="V46" t="n">
-        <v>1531.166308041833</v>
+        <v>1585.27938116789</v>
       </c>
       <c r="W46" t="n">
-        <v>1531.166308041833</v>
+        <v>1313.252976754182</v>
       </c>
       <c r="X46" t="n">
-        <v>1285.774553375245</v>
+        <v>1313.252976754182</v>
       </c>
       <c r="Y46" t="n">
-        <v>1285.774553375245</v>
+        <v>1085.83330606829</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="O2" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="R2" t="n">
-        <v>39.64570999510201</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,25 +8057,25 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>41.31500304752736</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>13.31876740878121</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K4" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
+        <v>41.31500304752736</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>39.64570999510201</v>
+      </c>
+      <c r="Q4" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K5" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L5" t="n">
-        <v>41.31500304752735</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="N5" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -8294,31 +8294,31 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
         <v>41.31500304752736</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>13.31876740878121</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q6" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="R6" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8379,19 +8379,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q7" t="n">
         <v>41.31500304752734</v>
@@ -8452,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="P8" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>39.64570999510202</v>
       </c>
       <c r="Q8" t="n">
         <v>41.31500304752734</v>
@@ -8528,28 +8528,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>13.31876740878122</v>
+      </c>
+      <c r="P9" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>39.64570999510202</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>41.31500304752734</v>
@@ -8613,7 +8613,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K10" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -8625,10 +8625,10 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="P10" t="n">
-        <v>39.64570999510201</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q10" t="n">
         <v>41.31500304752734</v>
@@ -8707,13 +8707,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>171.4450305734747</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>0.5823389037204834</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>83.66028638588904</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>109.9872289722096</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8847,10 +8847,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>422.4342240080415</v>
@@ -8859,16 +8859,16 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>76.66599427864003</v>
+        <v>260.5286413794644</v>
       </c>
       <c r="O13" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>171.4450305734751</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>171.4450305734747</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>83.66028638588855</v>
+        <v>83.66028638588904</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9087,22 +9087,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>172.373815644949</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>439.1718903510222</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>441.8823928384098</v>
       </c>
       <c r="O16" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>152.9256468145809</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9178,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>477.0751790972042</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>474.6543359315124</v>
+        <v>341.2156239115693</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>83.66028638588921</v>
       </c>
       <c r="K18" t="n">
-        <v>202.0166278953232</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,10 +9324,10 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>42.50771623546495</v>
       </c>
       <c r="L19" t="n">
-        <v>17.51645596525691</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645587</v>
@@ -9342,7 +9342,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>303.7916442617576</v>
       </c>
       <c r="K20" t="n">
-        <v>490.7749988132047</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9412,10 +9412,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>460.9545162155118</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>477.075179097204</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>83.66028638588921</v>
       </c>
       <c r="K21" t="n">
-        <v>83.66028638588864</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9558,13 +9558,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>42.50771623546541</v>
       </c>
       <c r="L22" t="n">
-        <v>382.5044759004342</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645587</v>
@@ -9579,7 +9579,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9652,10 +9652,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>988.925223449538</v>
+        <v>136.4613018014525</v>
       </c>
       <c r="P23" t="n">
-        <v>826.9907922827952</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
@@ -9719,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>202.0166278953226</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>83.66028638588864</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9804,10 +9804,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>59.20735032177436</v>
       </c>
       <c r="N25" t="n">
-        <v>41.80829575281632</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
@@ -9877,7 +9877,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>979.2393744864794</v>
+        <v>136.4613018014516</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>228.3435704816435</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>83.66028638588864</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10044,16 +10044,16 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
-        <v>41.80829575281632</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165068</v>
+        <v>115.9909883558771</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>83.66028638588864</v>
       </c>
       <c r="K30" t="n">
-        <v>202.0166278953247</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,16 +10269,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>59.20735032177458</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -10290,7 +10290,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>129.961943674547</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>979.2393744864794</v>
+        <v>136.4613018014516</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458549</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>228.3435704816434</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>83.66028638588864</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10515,10 +10515,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>59.20735032177458</v>
       </c>
       <c r="N34" t="n">
-        <v>41.80829575281587</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
@@ -10585,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>228.8478476432097</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>25.21428941980651</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>465.5607093933983</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>460.9545162155118</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10606,10 +10606,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>228.343570481644</v>
+        <v>83.66028638588921</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -10755,16 +10755,16 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956006</v>
+        <v>41.80829575281632</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>203.4452157949568</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>407.7236943656382</v>
+        <v>319.9123071434502</v>
       </c>
       <c r="K38" t="n">
-        <v>544.0058206630782</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>460.9545162155118</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>228.343570481644</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>228.3435704816441</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10983,10 +10983,10 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>17.51645596525691</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645587</v>
@@ -11001,7 +11001,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>42.50771623546598</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.5823389037202276</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>0.5823389037218476</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11138,13 +11138,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>109.9872289722094</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>228.343570481644</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,25 +11220,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>152.9256468145816</v>
       </c>
       <c r="M43" t="n">
-        <v>439.1718903510223</v>
+        <v>439.1718903510226</v>
       </c>
       <c r="N43" t="n">
-        <v>148.856663917993</v>
+        <v>441.8823928384102</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>171.4450305734764</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11317,7 +11317,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>171.4450305734747</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>228.3435704816439</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>202.0166278953229</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -11454,25 +11454,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>439.1718903510223</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>441.8823928384099</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>231.2941282610659</v>
+        <v>169.6633131575627</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>373.6708554612201</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23269,10 +23269,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>395.7626676066075</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>45.87259149116938</v>
+        <v>45.87259149116939</v>
       </c>
       <c r="T11" t="n">
-        <v>210.7698155204704</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>81.15119588958299</v>
+        <v>256.5003848196444</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.2081542400095</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>66.89693864477954</v>
       </c>
       <c r="I13" t="n">
-        <v>65.90422234702716</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>144.9757031410272</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>215.7287599886568</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>175.819483386585</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>416.3870539873494</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>395.7626676066075</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>45.87259149116938</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>210.7698155204704</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.5003848196444</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>132.0376124868583</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>65.90422234702716</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,19 +23706,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>29.04484667439763</v>
+        <v>240.3134905693484</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>174.453157249933</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>48.04862461980252</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>45.87259149116939</v>
       </c>
       <c r="T17" t="n">
         <v>210.7698155204704</v>
@@ -23794,10 +23794,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>79.77707736756548</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23971,19 +23971,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>90.52485369070445</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>395.7626676066075</v>
+        <v>165.5026473876396</v>
       </c>
       <c r="H20" t="n">
         <v>269.6358874562563</v>
@@ -24022,13 +24022,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>210.7698155204704</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>256.5003848196444</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -25156,7 +25156,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.7626676066075</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>45.87259149116939</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25216,13 +25216,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>356.6482099020744</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>359.521775215848</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25393,22 +25393,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>196.6658547436534</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>395.7626676066075</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>269.6358874562563</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>321.7915035804046</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25633,10 +25633,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>408.6021853710391</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>45.87259149116938</v>
+        <v>45.87259149116939</v>
       </c>
       <c r="T41" t="n">
         <v>210.7698155204704</v>
@@ -25690,13 +25690,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>369.224311697691</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25836,22 +25836,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>144.9757031410272</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>3.961464621886478</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6090048493664</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>126.9867706608365</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>290.3496162300553</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>395.7626676066075</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>269.6358874562563</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>45.87259149116939</v>
       </c>
       <c r="T44" t="n">
         <v>210.7698155204704</v>
@@ -25924,7 +25924,7 @@
         <v>256.5003848196444</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>320.3226562265477</v>
       </c>
     </row>
     <row r="45">
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>132.0376124868583</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>65.90422234702716</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,25 +26073,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>144.9757031410272</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.3134905693484</v>
       </c>
       <c r="U46" t="n">
-        <v>125.3295057249509</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>83.56366069142541</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>283321.0902056447</v>
+        <v>283321.0902056448</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>382960.3484511328</v>
+        <v>382960.3484511327</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>382960.3484511329</v>
+        <v>382960.3484511328</v>
       </c>
     </row>
     <row r="9">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>382960.3484511328</v>
+        <v>382960.3484511329</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>283321.0902056447</v>
+        <v>283321.090205645</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>283321.0902056448</v>
+        <v>283321.090205645</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>469128.9049041076</v>
+        <v>469128.9049041075</v>
       </c>
       <c r="C2" t="n">
         <v>469128.9049041075</v>
@@ -26322,40 +26322,40 @@
         <v>469128.9049041075</v>
       </c>
       <c r="E2" t="n">
-        <v>261451.7989093707</v>
+        <v>261451.7989093708</v>
       </c>
       <c r="F2" t="n">
         <v>261451.7989093707</v>
       </c>
       <c r="G2" t="n">
-        <v>330777.0049337727</v>
+        <v>330777.0049337726</v>
       </c>
       <c r="H2" t="n">
-        <v>330777.0049337727</v>
+        <v>330777.0049337726</v>
       </c>
       <c r="I2" t="n">
         <v>469128.9049041075</v>
       </c>
       <c r="J2" t="n">
-        <v>469128.9049041076</v>
+        <v>469128.9049041075</v>
       </c>
       <c r="K2" t="n">
-        <v>469128.9049041076</v>
+        <v>469128.9049041075</v>
       </c>
       <c r="L2" t="n">
-        <v>469128.9049041076</v>
+        <v>469128.9049041075</v>
       </c>
       <c r="M2" t="n">
         <v>330777.0049337726</v>
       </c>
       <c r="N2" t="n">
-        <v>330777.0049337726</v>
+        <v>330777.0049337727</v>
       </c>
       <c r="O2" t="n">
-        <v>261451.7989093707</v>
+        <v>261451.7989093708</v>
       </c>
       <c r="P2" t="n">
-        <v>261451.7989093707</v>
+        <v>261451.7989093708</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13845.60776629648</v>
+        <v>13845.60776629651</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>54011.64035527953</v>
+        <v>54011.64035527944</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>136111.675644217</v>
+        <v>136111.6756442171</v>
       </c>
       <c r="J3" t="n">
-        <v>10809.82265736732</v>
+        <v>10809.8226573672</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>301646.5989996908</v>
       </c>
       <c r="E4" t="n">
-        <v>22314.6400369935</v>
+        <v>22314.64003699351</v>
       </c>
       <c r="F4" t="n">
-        <v>22314.64003699349</v>
+        <v>22314.64003699352</v>
       </c>
       <c r="G4" t="n">
-        <v>52749.94846696399</v>
+        <v>52749.94846696394</v>
       </c>
       <c r="H4" t="n">
-        <v>52749.94846696398</v>
+        <v>52749.94846696396</v>
       </c>
       <c r="I4" t="n">
+        <v>113489.5118804129</v>
+      </c>
+      <c r="J4" t="n">
+        <v>113489.5118804129</v>
+      </c>
+      <c r="K4" t="n">
         <v>113489.5118804128</v>
       </c>
-      <c r="J4" t="n">
-        <v>113489.5118804128</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>113489.5118804129</v>
-      </c>
-      <c r="L4" t="n">
-        <v>113489.5118804128</v>
       </c>
       <c r="M4" t="n">
         <v>52749.94846696399</v>
       </c>
       <c r="N4" t="n">
-        <v>52749.94846696399</v>
+        <v>52749.94846696398</v>
       </c>
       <c r="O4" t="n">
-        <v>22314.64003699349</v>
+        <v>22314.64003699356</v>
       </c>
       <c r="P4" t="n">
-        <v>22314.6400369935</v>
+        <v>22314.64003699357</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>36139.55218528966</v>
       </c>
       <c r="E5" t="n">
-        <v>42423.71831539456</v>
+        <v>42423.71831539455</v>
       </c>
       <c r="F5" t="n">
-        <v>42423.71831539456</v>
+        <v>42423.71831539455</v>
       </c>
       <c r="G5" t="n">
-        <v>54405.06619507055</v>
+        <v>54405.06619507054</v>
       </c>
       <c r="H5" t="n">
-        <v>54405.06619507055</v>
+        <v>54405.06619507054</v>
       </c>
       <c r="I5" t="n">
-        <v>85525.54889169247</v>
+        <v>85525.5488916925</v>
       </c>
       <c r="J5" t="n">
         <v>85525.54889169248</v>
@@ -26502,16 +26502,16 @@
         <v>85525.54889169248</v>
       </c>
       <c r="M5" t="n">
-        <v>54405.06619507055</v>
+        <v>54405.06619507054</v>
       </c>
       <c r="N5" t="n">
-        <v>54405.06619507055</v>
+        <v>54405.06619507054</v>
       </c>
       <c r="O5" t="n">
-        <v>42423.71831539456</v>
+        <v>42423.71831539458</v>
       </c>
       <c r="P5" t="n">
-        <v>42423.71831539456</v>
+        <v>42423.71831539458</v>
       </c>
     </row>
     <row r="6">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>117497.1459528306</v>
+        <v>117497.1459528305</v>
       </c>
       <c r="C6" t="n">
         <v>131342.753719127</v>
@@ -26530,40 +26530,40 @@
         <v>131342.753719127</v>
       </c>
       <c r="E6" t="n">
-        <v>-280101.9552109015</v>
+        <v>-280695.3183708865</v>
       </c>
       <c r="F6" t="n">
-        <v>196713.4405569827</v>
+        <v>196120.0773969976</v>
       </c>
       <c r="G6" t="n">
-        <v>169610.3499164587</v>
+        <v>169215.0587736863</v>
       </c>
       <c r="H6" t="n">
-        <v>223621.9902717382</v>
+        <v>223226.6991289657</v>
       </c>
       <c r="I6" t="n">
-        <v>134002.1684877853</v>
+        <v>134002.168487785</v>
       </c>
       <c r="J6" t="n">
         <v>259304.0214746349</v>
       </c>
       <c r="K6" t="n">
-        <v>270113.8441320023</v>
+        <v>270113.8441320022</v>
       </c>
       <c r="L6" t="n">
-        <v>270113.8441320023</v>
+        <v>270113.8441320022</v>
       </c>
       <c r="M6" t="n">
-        <v>223621.9902717381</v>
+        <v>223226.6991289657</v>
       </c>
       <c r="N6" t="n">
-        <v>223621.9902717381</v>
+        <v>223226.6991289657</v>
       </c>
       <c r="O6" t="n">
-        <v>196713.4405569826</v>
+        <v>196120.0773969977</v>
       </c>
       <c r="P6" t="n">
-        <v>196713.4405569827</v>
+        <v>196120.0773969977</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>403.2698822698608</v>
+        <v>403.2698822698607</v>
       </c>
       <c r="F3" t="n">
-        <v>403.2698822698608</v>
+        <v>403.2698822698607</v>
       </c>
       <c r="G3" t="n">
-        <v>403.2698822698608</v>
+        <v>403.2698822698607</v>
       </c>
       <c r="H3" t="n">
-        <v>403.2698822698608</v>
+        <v>403.2698822698607</v>
       </c>
       <c r="I3" t="n">
-        <v>403.2698822698608</v>
+        <v>403.2698822698607</v>
       </c>
       <c r="J3" t="n">
-        <v>403.2698822698608</v>
+        <v>403.2698822698607</v>
       </c>
       <c r="K3" t="n">
-        <v>403.2698822698608</v>
+        <v>403.2698822698607</v>
       </c>
       <c r="L3" t="n">
-        <v>403.2698822698608</v>
+        <v>403.2698822698607</v>
       </c>
       <c r="M3" t="n">
-        <v>403.2698822698608</v>
+        <v>403.2698822698607</v>
       </c>
       <c r="N3" t="n">
-        <v>403.2698822698608</v>
+        <v>403.2698822698607</v>
       </c>
       <c r="O3" t="n">
-        <v>403.2698822698608</v>
+        <v>403.2698822698607</v>
       </c>
       <c r="P3" t="n">
-        <v>403.2698822698608</v>
+        <v>403.2698822698607</v>
       </c>
     </row>
     <row r="4">
@@ -26804,10 +26804,10 @@
         <v>553.1650473998617</v>
       </c>
       <c r="G4" t="n">
-        <v>750.2266901576905</v>
+        <v>750.2266901576903</v>
       </c>
       <c r="H4" t="n">
-        <v>750.2266901576905</v>
+        <v>750.2266901576904</v>
       </c>
       <c r="I4" t="n">
         <v>1262.076734510025</v>
@@ -26828,10 +26828,10 @@
         <v>750.2266901576905</v>
       </c>
       <c r="O4" t="n">
-        <v>553.1650473998617</v>
+        <v>553.165047399862</v>
       </c>
       <c r="P4" t="n">
-        <v>553.1650473998617</v>
+        <v>553.165047399862</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>403.2698822698608</v>
+        <v>403.2698822698607</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27026,16 +27026,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>197.0616427578288</v>
+        <v>197.0616427578285</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>511.8500443523341</v>
+        <v>511.8500443523346</v>
       </c>
       <c r="J4" t="n">
-        <v>41.31500304752763</v>
+        <v>41.31500304752717</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>197.0616427578288</v>
+        <v>197.0616427578285</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27463,19 +27463,19 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D3" t="n">
-        <v>94.13938596491228</v>
+        <v>57.7491312806502</v>
       </c>
       <c r="E3" t="n">
-        <v>93.17921052631581</v>
+        <v>51.86420747878847</v>
       </c>
       <c r="F3" t="n">
         <v>82.55</v>
       </c>
       <c r="G3" t="n">
-        <v>84.53123883647795</v>
+        <v>43.21623578895061</v>
       </c>
       <c r="H3" t="n">
-        <v>41.31829566194965</v>
+        <v>0.003292614422299778</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,16 +27508,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>21.5058801285734</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T3" t="n">
-        <v>87.56185418517705</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U3" t="n">
-        <v>133.258178482504</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V3" t="n">
-        <v>160.7360880743585</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W3" t="n">
         <v>183.4695267241379</v>
@@ -27545,16 +27545,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>126.7454206642428</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>122.6203591769033</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>97.18814951900188</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27587,22 +27587,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>116.333951967456</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>239.2584160551636</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>227.991137322044</v>
+        <v>232.9158856853093</v>
       </c>
       <c r="X4" t="n">
-        <v>201.6228340723943</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>78.77585902143818</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C6" t="n">
         <v>105.3918965517241</v>
@@ -27703,7 +27703,7 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E6" t="n">
-        <v>51.86420747878847</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F6" t="n">
         <v>82.55</v>
@@ -27712,7 +27712,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H6" t="n">
-        <v>4.928040977687559</v>
+        <v>0.003292614422299778</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27745,13 +27745,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>62.82088317610075</v>
+        <v>21.5058801285734</v>
       </c>
       <c r="T6" t="n">
-        <v>128.8768572327044</v>
+        <v>87.56185418517705</v>
       </c>
       <c r="U6" t="n">
-        <v>174.5731815300314</v>
+        <v>138.1829268457693</v>
       </c>
       <c r="V6" t="n">
         <v>197.1263427586206</v>
@@ -27760,7 +27760,7 @@
         <v>183.4695267241379</v>
       </c>
       <c r="X6" t="n">
-        <v>112.0037583559815</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y6" t="n">
         <v>125.2209214285714</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.5101778475351</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>116.333951967456</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>234.3336676918984</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>242.7709500007465</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>201.6228340723943</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>209.9588623764525</v>
       </c>
     </row>
     <row r="8">
@@ -27934,19 +27934,19 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C9" t="n">
-        <v>69.00164186746204</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
         <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
-        <v>93.17921052631581</v>
+        <v>56.78895584205373</v>
       </c>
       <c r="F9" t="n">
-        <v>82.55</v>
+        <v>41.23499695247265</v>
       </c>
       <c r="G9" t="n">
-        <v>84.53123883647795</v>
+        <v>43.21623578895061</v>
       </c>
       <c r="H9" t="n">
         <v>0.003292614422299778</v>
@@ -27997,10 +27997,10 @@
         <v>183.4695267241379</v>
       </c>
       <c r="X9" t="n">
-        <v>112.0037583559815</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y9" t="n">
-        <v>83.90591838104407</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="10">
@@ -28019,19 +28019,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>152.8738121091899</v>
       </c>
       <c r="F10" t="n">
         <v>133.624980450334</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>122.6203591769033</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>46.45834668554406</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,7 +28067,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>234.3336676918984</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -28076,10 +28076,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>201.6228340723943</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>209.9588623764525</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -31758,7 +31758,7 @@
         <v>16.60296555495963</v>
       </c>
       <c r="I11" t="n">
-        <v>62.50075230636708</v>
+        <v>62.50075230636707</v>
       </c>
       <c r="J11" t="n">
         <v>137.5960891268406</v>
@@ -31773,7 +31773,7 @@
         <v>284.6659807642922</v>
       </c>
       <c r="N11" t="n">
-        <v>289.2721739421787</v>
+        <v>289.2721739421786</v>
       </c>
       <c r="O11" t="n">
         <v>273.1515110604864</v>
@@ -31788,7 +31788,7 @@
         <v>101.8367909231523</v>
       </c>
       <c r="S11" t="n">
-        <v>36.94276358683198</v>
+        <v>36.94276358683197</v>
       </c>
       <c r="T11" t="n">
         <v>7.096739335221367</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.867410690165361</v>
+        <v>0.8674106901653608</v>
       </c>
       <c r="H12" t="n">
-        <v>8.377361139228618</v>
+        <v>8.377361139228617</v>
       </c>
       <c r="I12" t="n">
-        <v>29.86479788507932</v>
+        <v>29.86479788507931</v>
       </c>
       <c r="J12" t="n">
-        <v>81.95128805636861</v>
+        <v>81.9512880563686</v>
       </c>
       <c r="K12" t="n">
         <v>140.0678042974478</v>
@@ -31849,13 +31849,13 @@
         <v>188.3384483185798</v>
       </c>
       <c r="M12" t="n">
-        <v>219.7820858370741</v>
+        <v>219.782085837074</v>
       </c>
       <c r="N12" t="n">
         <v>225.5990636671743</v>
       </c>
       <c r="O12" t="n">
-        <v>206.3790689008787</v>
+        <v>206.3790689008786</v>
       </c>
       <c r="P12" t="n">
         <v>165.6373974930679</v>
@@ -31864,16 +31864,16 @@
         <v>110.724213713038</v>
       </c>
       <c r="R12" t="n">
-        <v>53.85555144728445</v>
+        <v>53.85555144728444</v>
       </c>
       <c r="S12" t="n">
         <v>16.11177312653641</v>
       </c>
       <c r="T12" t="n">
-        <v>3.49627379062266</v>
+        <v>3.496273790622659</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05706649277403693</v>
+        <v>0.05706649277403692</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,22 +31913,22 @@
         <v>0.7272079844210603</v>
       </c>
       <c r="H13" t="n">
-        <v>6.465540079670887</v>
+        <v>6.465540079670886</v>
       </c>
       <c r="I13" t="n">
-        <v>21.86912738604426</v>
+        <v>21.86912738604425</v>
       </c>
       <c r="J13" t="n">
-        <v>51.41360449856897</v>
+        <v>51.41360449856896</v>
       </c>
       <c r="K13" t="n">
-        <v>84.48834582637409</v>
+        <v>84.48834582637407</v>
       </c>
       <c r="L13" t="n">
         <v>108.115994338382</v>
       </c>
       <c r="M13" t="n">
-        <v>113.9931570488395</v>
+        <v>113.9931570488394</v>
       </c>
       <c r="N13" t="n">
         <v>111.282654561452</v>
@@ -31937,13 +31937,13 @@
         <v>102.7875431070786</v>
       </c>
       <c r="P13" t="n">
-        <v>87.95250022488894</v>
+        <v>87.95250022488892</v>
       </c>
       <c r="Q13" t="n">
         <v>60.89375222274897</v>
       </c>
       <c r="R13" t="n">
-        <v>32.69791537224149</v>
+        <v>32.69791537224148</v>
       </c>
       <c r="S13" t="n">
         <v>12.67325187395611</v>
@@ -31995,7 +31995,7 @@
         <v>16.60296555495963</v>
       </c>
       <c r="I14" t="n">
-        <v>62.50075230636708</v>
+        <v>62.50075230636707</v>
       </c>
       <c r="J14" t="n">
         <v>137.5960891268406</v>
@@ -32010,7 +32010,7 @@
         <v>284.6659807642922</v>
       </c>
       <c r="N14" t="n">
-        <v>289.2721739421787</v>
+        <v>289.2721739421786</v>
       </c>
       <c r="O14" t="n">
         <v>273.1515110604864</v>
@@ -32025,7 +32025,7 @@
         <v>101.8367909231523</v>
       </c>
       <c r="S14" t="n">
-        <v>36.94276358683198</v>
+        <v>36.94276358683197</v>
       </c>
       <c r="T14" t="n">
         <v>7.096739335221367</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.867410690165361</v>
+        <v>0.8674106901653608</v>
       </c>
       <c r="H15" t="n">
-        <v>8.377361139228618</v>
+        <v>8.377361139228617</v>
       </c>
       <c r="I15" t="n">
-        <v>29.86479788507932</v>
+        <v>29.86479788507931</v>
       </c>
       <c r="J15" t="n">
-        <v>81.95128805636861</v>
+        <v>81.9512880563686</v>
       </c>
       <c r="K15" t="n">
         <v>140.0678042974478</v>
@@ -32086,13 +32086,13 @@
         <v>188.3384483185798</v>
       </c>
       <c r="M15" t="n">
-        <v>219.7820858370741</v>
+        <v>219.782085837074</v>
       </c>
       <c r="N15" t="n">
         <v>225.5990636671743</v>
       </c>
       <c r="O15" t="n">
-        <v>206.3790689008787</v>
+        <v>206.3790689008786</v>
       </c>
       <c r="P15" t="n">
         <v>165.6373974930679</v>
@@ -32101,16 +32101,16 @@
         <v>110.724213713038</v>
       </c>
       <c r="R15" t="n">
-        <v>53.85555144728445</v>
+        <v>53.85555144728444</v>
       </c>
       <c r="S15" t="n">
         <v>16.11177312653641</v>
       </c>
       <c r="T15" t="n">
-        <v>3.49627379062266</v>
+        <v>3.496273790622659</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05706649277403693</v>
+        <v>0.05706649277403692</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,22 +32150,22 @@
         <v>0.7272079844210603</v>
       </c>
       <c r="H16" t="n">
-        <v>6.465540079670887</v>
+        <v>6.465540079670886</v>
       </c>
       <c r="I16" t="n">
-        <v>21.86912738604426</v>
+        <v>21.86912738604425</v>
       </c>
       <c r="J16" t="n">
-        <v>51.41360449856897</v>
+        <v>51.41360449856896</v>
       </c>
       <c r="K16" t="n">
-        <v>84.48834582637409</v>
+        <v>84.48834582637407</v>
       </c>
       <c r="L16" t="n">
         <v>108.115994338382</v>
       </c>
       <c r="M16" t="n">
-        <v>113.9931570488395</v>
+        <v>113.9931570488394</v>
       </c>
       <c r="N16" t="n">
         <v>111.282654561452</v>
@@ -32174,13 +32174,13 @@
         <v>102.7875431070786</v>
       </c>
       <c r="P16" t="n">
-        <v>87.95250022488894</v>
+        <v>87.95250022488892</v>
       </c>
       <c r="Q16" t="n">
         <v>60.89375222274897</v>
       </c>
       <c r="R16" t="n">
-        <v>32.69791537224149</v>
+        <v>32.69791537224148</v>
       </c>
       <c r="S16" t="n">
         <v>12.67325187395611</v>
@@ -32232,7 +32232,7 @@
         <v>16.60296555495963</v>
       </c>
       <c r="I17" t="n">
-        <v>62.50075230636708</v>
+        <v>62.50075230636707</v>
       </c>
       <c r="J17" t="n">
         <v>137.5960891268406</v>
@@ -32247,7 +32247,7 @@
         <v>284.6659807642922</v>
       </c>
       <c r="N17" t="n">
-        <v>289.2721739421787</v>
+        <v>289.2721739421786</v>
       </c>
       <c r="O17" t="n">
         <v>273.1515110604864</v>
@@ -32262,7 +32262,7 @@
         <v>101.8367909231523</v>
       </c>
       <c r="S17" t="n">
-        <v>36.94276358683198</v>
+        <v>36.94276358683197</v>
       </c>
       <c r="T17" t="n">
         <v>7.096739335221367</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.867410690165361</v>
+        <v>0.8674106901653608</v>
       </c>
       <c r="H18" t="n">
-        <v>8.377361139228618</v>
+        <v>8.377361139228617</v>
       </c>
       <c r="I18" t="n">
-        <v>29.86479788507932</v>
+        <v>29.86479788507931</v>
       </c>
       <c r="J18" t="n">
-        <v>81.95128805636861</v>
+        <v>81.9512880563686</v>
       </c>
       <c r="K18" t="n">
         <v>140.0678042974478</v>
@@ -32323,13 +32323,13 @@
         <v>188.3384483185798</v>
       </c>
       <c r="M18" t="n">
-        <v>219.7820858370741</v>
+        <v>219.782085837074</v>
       </c>
       <c r="N18" t="n">
         <v>225.5990636671743</v>
       </c>
       <c r="O18" t="n">
-        <v>206.3790689008787</v>
+        <v>206.3790689008786</v>
       </c>
       <c r="P18" t="n">
         <v>165.6373974930679</v>
@@ -32338,16 +32338,16 @@
         <v>110.724213713038</v>
       </c>
       <c r="R18" t="n">
-        <v>53.85555144728445</v>
+        <v>53.85555144728444</v>
       </c>
       <c r="S18" t="n">
         <v>16.11177312653641</v>
       </c>
       <c r="T18" t="n">
-        <v>3.49627379062266</v>
+        <v>3.496273790622659</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05706649277403693</v>
+        <v>0.05706649277403692</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,22 +32387,22 @@
         <v>0.7272079844210603</v>
       </c>
       <c r="H19" t="n">
-        <v>6.465540079670887</v>
+        <v>6.465540079670886</v>
       </c>
       <c r="I19" t="n">
-        <v>21.86912738604426</v>
+        <v>21.86912738604425</v>
       </c>
       <c r="J19" t="n">
-        <v>51.41360449856897</v>
+        <v>51.41360449856896</v>
       </c>
       <c r="K19" t="n">
-        <v>84.48834582637409</v>
+        <v>84.48834582637407</v>
       </c>
       <c r="L19" t="n">
         <v>108.115994338382</v>
       </c>
       <c r="M19" t="n">
-        <v>113.9931570488395</v>
+        <v>113.9931570488394</v>
       </c>
       <c r="N19" t="n">
         <v>111.282654561452</v>
@@ -32411,13 +32411,13 @@
         <v>102.7875431070786</v>
       </c>
       <c r="P19" t="n">
-        <v>87.95250022488894</v>
+        <v>87.95250022488892</v>
       </c>
       <c r="Q19" t="n">
         <v>60.89375222274897</v>
       </c>
       <c r="R19" t="n">
-        <v>32.69791537224149</v>
+        <v>32.69791537224148</v>
       </c>
       <c r="S19" t="n">
         <v>12.67325187395611</v>
@@ -32469,7 +32469,7 @@
         <v>16.60296555495963</v>
       </c>
       <c r="I20" t="n">
-        <v>62.50075230636708</v>
+        <v>62.50075230636707</v>
       </c>
       <c r="J20" t="n">
         <v>137.5960891268406</v>
@@ -32484,7 +32484,7 @@
         <v>284.6659807642922</v>
       </c>
       <c r="N20" t="n">
-        <v>289.2721739421787</v>
+        <v>289.2721739421786</v>
       </c>
       <c r="O20" t="n">
         <v>273.1515110604864</v>
@@ -32499,7 +32499,7 @@
         <v>101.8367909231523</v>
       </c>
       <c r="S20" t="n">
-        <v>36.94276358683198</v>
+        <v>36.94276358683197</v>
       </c>
       <c r="T20" t="n">
         <v>7.096739335221367</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.867410690165361</v>
+        <v>0.8674106901653608</v>
       </c>
       <c r="H21" t="n">
-        <v>8.377361139228618</v>
+        <v>8.377361139228617</v>
       </c>
       <c r="I21" t="n">
-        <v>29.86479788507932</v>
+        <v>29.86479788507931</v>
       </c>
       <c r="J21" t="n">
-        <v>81.95128805636861</v>
+        <v>81.9512880563686</v>
       </c>
       <c r="K21" t="n">
         <v>140.0678042974478</v>
@@ -32560,13 +32560,13 @@
         <v>188.3384483185798</v>
       </c>
       <c r="M21" t="n">
-        <v>219.7820858370741</v>
+        <v>219.782085837074</v>
       </c>
       <c r="N21" t="n">
         <v>225.5990636671743</v>
       </c>
       <c r="O21" t="n">
-        <v>206.3790689008787</v>
+        <v>206.3790689008786</v>
       </c>
       <c r="P21" t="n">
         <v>165.6373974930679</v>
@@ -32575,16 +32575,16 @@
         <v>110.724213713038</v>
       </c>
       <c r="R21" t="n">
-        <v>53.85555144728445</v>
+        <v>53.85555144728444</v>
       </c>
       <c r="S21" t="n">
         <v>16.11177312653641</v>
       </c>
       <c r="T21" t="n">
-        <v>3.49627379062266</v>
+        <v>3.496273790622659</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05706649277403693</v>
+        <v>0.05706649277403692</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,22 +32624,22 @@
         <v>0.7272079844210603</v>
       </c>
       <c r="H22" t="n">
-        <v>6.465540079670887</v>
+        <v>6.465540079670886</v>
       </c>
       <c r="I22" t="n">
-        <v>21.86912738604426</v>
+        <v>21.86912738604425</v>
       </c>
       <c r="J22" t="n">
-        <v>51.41360449856897</v>
+        <v>51.41360449856896</v>
       </c>
       <c r="K22" t="n">
-        <v>84.48834582637409</v>
+        <v>84.48834582637407</v>
       </c>
       <c r="L22" t="n">
         <v>108.115994338382</v>
       </c>
       <c r="M22" t="n">
-        <v>113.9931570488395</v>
+        <v>113.9931570488394</v>
       </c>
       <c r="N22" t="n">
         <v>111.282654561452</v>
@@ -32648,13 +32648,13 @@
         <v>102.7875431070786</v>
       </c>
       <c r="P22" t="n">
-        <v>87.95250022488894</v>
+        <v>87.95250022488892</v>
       </c>
       <c r="Q22" t="n">
         <v>60.89375222274897</v>
       </c>
       <c r="R22" t="n">
-        <v>32.69791537224149</v>
+        <v>32.69791537224148</v>
       </c>
       <c r="S22" t="n">
         <v>12.67325187395611</v>
@@ -32706,7 +32706,7 @@
         <v>16.60296555495963</v>
       </c>
       <c r="I23" t="n">
-        <v>62.50075230636708</v>
+        <v>62.50075230636707</v>
       </c>
       <c r="J23" t="n">
         <v>137.5960891268406</v>
@@ -32721,7 +32721,7 @@
         <v>284.6659807642922</v>
       </c>
       <c r="N23" t="n">
-        <v>289.2721739421787</v>
+        <v>289.2721739421786</v>
       </c>
       <c r="O23" t="n">
         <v>273.1515110604864</v>
@@ -32736,7 +32736,7 @@
         <v>101.8367909231523</v>
       </c>
       <c r="S23" t="n">
-        <v>36.94276358683198</v>
+        <v>36.94276358683197</v>
       </c>
       <c r="T23" t="n">
         <v>7.096739335221367</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.867410690165361</v>
+        <v>0.8674106901653608</v>
       </c>
       <c r="H24" t="n">
-        <v>8.377361139228618</v>
+        <v>8.377361139228617</v>
       </c>
       <c r="I24" t="n">
-        <v>29.86479788507932</v>
+        <v>29.86479788507931</v>
       </c>
       <c r="J24" t="n">
-        <v>81.95128805636861</v>
+        <v>81.9512880563686</v>
       </c>
       <c r="K24" t="n">
         <v>140.0678042974478</v>
@@ -32797,13 +32797,13 @@
         <v>188.3384483185798</v>
       </c>
       <c r="M24" t="n">
-        <v>219.7820858370741</v>
+        <v>219.782085837074</v>
       </c>
       <c r="N24" t="n">
         <v>225.5990636671743</v>
       </c>
       <c r="O24" t="n">
-        <v>206.3790689008787</v>
+        <v>206.3790689008786</v>
       </c>
       <c r="P24" t="n">
         <v>165.6373974930679</v>
@@ -32812,16 +32812,16 @@
         <v>110.724213713038</v>
       </c>
       <c r="R24" t="n">
-        <v>53.85555144728445</v>
+        <v>53.85555144728444</v>
       </c>
       <c r="S24" t="n">
         <v>16.11177312653641</v>
       </c>
       <c r="T24" t="n">
-        <v>3.49627379062266</v>
+        <v>3.496273790622659</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05706649277403693</v>
+        <v>0.05706649277403692</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,22 +32861,22 @@
         <v>0.7272079844210603</v>
       </c>
       <c r="H25" t="n">
-        <v>6.465540079670887</v>
+        <v>6.465540079670886</v>
       </c>
       <c r="I25" t="n">
-        <v>21.86912738604426</v>
+        <v>21.86912738604425</v>
       </c>
       <c r="J25" t="n">
-        <v>51.41360449856897</v>
+        <v>51.41360449856896</v>
       </c>
       <c r="K25" t="n">
-        <v>84.48834582637409</v>
+        <v>84.48834582637407</v>
       </c>
       <c r="L25" t="n">
         <v>108.115994338382</v>
       </c>
       <c r="M25" t="n">
-        <v>113.9931570488395</v>
+        <v>113.9931570488394</v>
       </c>
       <c r="N25" t="n">
         <v>111.282654561452</v>
@@ -32885,13 +32885,13 @@
         <v>102.7875431070786</v>
       </c>
       <c r="P25" t="n">
-        <v>87.95250022488894</v>
+        <v>87.95250022488892</v>
       </c>
       <c r="Q25" t="n">
         <v>60.89375222274897</v>
       </c>
       <c r="R25" t="n">
-        <v>32.69791537224149</v>
+        <v>32.69791537224148</v>
       </c>
       <c r="S25" t="n">
         <v>12.67325187395611</v>
@@ -32943,7 +32943,7 @@
         <v>16.60296555495963</v>
       </c>
       <c r="I26" t="n">
-        <v>62.50075230636708</v>
+        <v>62.50075230636707</v>
       </c>
       <c r="J26" t="n">
         <v>137.5960891268406</v>
@@ -32958,7 +32958,7 @@
         <v>284.6659807642922</v>
       </c>
       <c r="N26" t="n">
-        <v>289.2721739421787</v>
+        <v>289.2721739421786</v>
       </c>
       <c r="O26" t="n">
         <v>273.1515110604864</v>
@@ -32973,7 +32973,7 @@
         <v>101.8367909231523</v>
       </c>
       <c r="S26" t="n">
-        <v>36.94276358683198</v>
+        <v>36.94276358683197</v>
       </c>
       <c r="T26" t="n">
         <v>7.096739335221367</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.867410690165361</v>
+        <v>0.8674106901653608</v>
       </c>
       <c r="H27" t="n">
-        <v>8.377361139228618</v>
+        <v>8.377361139228617</v>
       </c>
       <c r="I27" t="n">
-        <v>29.86479788507932</v>
+        <v>29.86479788507931</v>
       </c>
       <c r="J27" t="n">
-        <v>81.95128805636861</v>
+        <v>81.9512880563686</v>
       </c>
       <c r="K27" t="n">
         <v>140.0678042974478</v>
@@ -33034,13 +33034,13 @@
         <v>188.3384483185798</v>
       </c>
       <c r="M27" t="n">
-        <v>219.7820858370741</v>
+        <v>219.782085837074</v>
       </c>
       <c r="N27" t="n">
         <v>225.5990636671743</v>
       </c>
       <c r="O27" t="n">
-        <v>206.3790689008787</v>
+        <v>206.3790689008786</v>
       </c>
       <c r="P27" t="n">
         <v>165.6373974930679</v>
@@ -33049,16 +33049,16 @@
         <v>110.724213713038</v>
       </c>
       <c r="R27" t="n">
-        <v>53.85555144728445</v>
+        <v>53.85555144728444</v>
       </c>
       <c r="S27" t="n">
         <v>16.11177312653641</v>
       </c>
       <c r="T27" t="n">
-        <v>3.49627379062266</v>
+        <v>3.496273790622659</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05706649277403693</v>
+        <v>0.05706649277403692</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,22 +33098,22 @@
         <v>0.7272079844210603</v>
       </c>
       <c r="H28" t="n">
-        <v>6.465540079670887</v>
+        <v>6.465540079670886</v>
       </c>
       <c r="I28" t="n">
-        <v>21.86912738604426</v>
+        <v>21.86912738604425</v>
       </c>
       <c r="J28" t="n">
-        <v>51.41360449856897</v>
+        <v>51.41360449856896</v>
       </c>
       <c r="K28" t="n">
-        <v>84.48834582637409</v>
+        <v>84.48834582637407</v>
       </c>
       <c r="L28" t="n">
         <v>108.115994338382</v>
       </c>
       <c r="M28" t="n">
-        <v>113.9931570488395</v>
+        <v>113.9931570488394</v>
       </c>
       <c r="N28" t="n">
         <v>111.282654561452</v>
@@ -33122,13 +33122,13 @@
         <v>102.7875431070786</v>
       </c>
       <c r="P28" t="n">
-        <v>87.95250022488894</v>
+        <v>87.95250022488892</v>
       </c>
       <c r="Q28" t="n">
         <v>60.89375222274897</v>
       </c>
       <c r="R28" t="n">
-        <v>32.69791537224149</v>
+        <v>32.69791537224148</v>
       </c>
       <c r="S28" t="n">
         <v>12.67325187395611</v>
@@ -33180,7 +33180,7 @@
         <v>16.60296555495963</v>
       </c>
       <c r="I29" t="n">
-        <v>62.50075230636708</v>
+        <v>62.50075230636707</v>
       </c>
       <c r="J29" t="n">
         <v>137.5960891268406</v>
@@ -33195,7 +33195,7 @@
         <v>284.6659807642922</v>
       </c>
       <c r="N29" t="n">
-        <v>289.2721739421787</v>
+        <v>289.2721739421786</v>
       </c>
       <c r="O29" t="n">
         <v>273.1515110604864</v>
@@ -33210,7 +33210,7 @@
         <v>101.8367909231523</v>
       </c>
       <c r="S29" t="n">
-        <v>36.94276358683198</v>
+        <v>36.94276358683197</v>
       </c>
       <c r="T29" t="n">
         <v>7.096739335221367</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.867410690165361</v>
+        <v>0.8674106901653608</v>
       </c>
       <c r="H30" t="n">
-        <v>8.377361139228618</v>
+        <v>8.377361139228617</v>
       </c>
       <c r="I30" t="n">
-        <v>29.86479788507932</v>
+        <v>29.86479788507931</v>
       </c>
       <c r="J30" t="n">
-        <v>81.95128805636861</v>
+        <v>81.9512880563686</v>
       </c>
       <c r="K30" t="n">
         <v>140.0678042974478</v>
@@ -33271,13 +33271,13 @@
         <v>188.3384483185798</v>
       </c>
       <c r="M30" t="n">
-        <v>219.7820858370741</v>
+        <v>219.782085837074</v>
       </c>
       <c r="N30" t="n">
         <v>225.5990636671743</v>
       </c>
       <c r="O30" t="n">
-        <v>206.3790689008787</v>
+        <v>206.3790689008786</v>
       </c>
       <c r="P30" t="n">
         <v>165.6373974930679</v>
@@ -33286,16 +33286,16 @@
         <v>110.724213713038</v>
       </c>
       <c r="R30" t="n">
-        <v>53.85555144728445</v>
+        <v>53.85555144728444</v>
       </c>
       <c r="S30" t="n">
         <v>16.11177312653641</v>
       </c>
       <c r="T30" t="n">
-        <v>3.49627379062266</v>
+        <v>3.496273790622659</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05706649277403693</v>
+        <v>0.05706649277403692</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,22 +33335,22 @@
         <v>0.7272079844210603</v>
       </c>
       <c r="H31" t="n">
-        <v>6.465540079670887</v>
+        <v>6.465540079670886</v>
       </c>
       <c r="I31" t="n">
-        <v>21.86912738604426</v>
+        <v>21.86912738604425</v>
       </c>
       <c r="J31" t="n">
-        <v>51.41360449856897</v>
+        <v>51.41360449856896</v>
       </c>
       <c r="K31" t="n">
-        <v>84.48834582637409</v>
+        <v>84.48834582637407</v>
       </c>
       <c r="L31" t="n">
         <v>108.115994338382</v>
       </c>
       <c r="M31" t="n">
-        <v>113.9931570488395</v>
+        <v>113.9931570488394</v>
       </c>
       <c r="N31" t="n">
         <v>111.282654561452</v>
@@ -33359,13 +33359,13 @@
         <v>102.7875431070786</v>
       </c>
       <c r="P31" t="n">
-        <v>87.95250022488894</v>
+        <v>87.95250022488892</v>
       </c>
       <c r="Q31" t="n">
         <v>60.89375222274897</v>
       </c>
       <c r="R31" t="n">
-        <v>32.69791537224149</v>
+        <v>32.69791537224148</v>
       </c>
       <c r="S31" t="n">
         <v>12.67325187395611</v>
@@ -33417,7 +33417,7 @@
         <v>16.60296555495963</v>
       </c>
       <c r="I32" t="n">
-        <v>62.50075230636708</v>
+        <v>62.50075230636707</v>
       </c>
       <c r="J32" t="n">
         <v>137.5960891268406</v>
@@ -33432,7 +33432,7 @@
         <v>284.6659807642922</v>
       </c>
       <c r="N32" t="n">
-        <v>289.2721739421787</v>
+        <v>289.2721739421786</v>
       </c>
       <c r="O32" t="n">
         <v>273.1515110604864</v>
@@ -33447,7 +33447,7 @@
         <v>101.8367909231523</v>
       </c>
       <c r="S32" t="n">
-        <v>36.94276358683198</v>
+        <v>36.94276358683197</v>
       </c>
       <c r="T32" t="n">
         <v>7.096739335221367</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.867410690165361</v>
+        <v>0.8674106901653608</v>
       </c>
       <c r="H33" t="n">
-        <v>8.377361139228618</v>
+        <v>8.377361139228617</v>
       </c>
       <c r="I33" t="n">
-        <v>29.86479788507932</v>
+        <v>29.86479788507931</v>
       </c>
       <c r="J33" t="n">
-        <v>81.95128805636861</v>
+        <v>81.9512880563686</v>
       </c>
       <c r="K33" t="n">
         <v>140.0678042974478</v>
@@ -33508,13 +33508,13 @@
         <v>188.3384483185798</v>
       </c>
       <c r="M33" t="n">
-        <v>219.7820858370741</v>
+        <v>219.782085837074</v>
       </c>
       <c r="N33" t="n">
         <v>225.5990636671743</v>
       </c>
       <c r="O33" t="n">
-        <v>206.3790689008787</v>
+        <v>206.3790689008786</v>
       </c>
       <c r="P33" t="n">
         <v>165.6373974930679</v>
@@ -33523,16 +33523,16 @@
         <v>110.724213713038</v>
       </c>
       <c r="R33" t="n">
-        <v>53.85555144728445</v>
+        <v>53.85555144728444</v>
       </c>
       <c r="S33" t="n">
         <v>16.11177312653641</v>
       </c>
       <c r="T33" t="n">
-        <v>3.49627379062266</v>
+        <v>3.496273790622659</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05706649277403693</v>
+        <v>0.05706649277403692</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,22 +33572,22 @@
         <v>0.7272079844210603</v>
       </c>
       <c r="H34" t="n">
-        <v>6.465540079670887</v>
+        <v>6.465540079670886</v>
       </c>
       <c r="I34" t="n">
-        <v>21.86912738604426</v>
+        <v>21.86912738604425</v>
       </c>
       <c r="J34" t="n">
-        <v>51.41360449856897</v>
+        <v>51.41360449856896</v>
       </c>
       <c r="K34" t="n">
-        <v>84.48834582637409</v>
+        <v>84.48834582637407</v>
       </c>
       <c r="L34" t="n">
         <v>108.115994338382</v>
       </c>
       <c r="M34" t="n">
-        <v>113.9931570488395</v>
+        <v>113.9931570488394</v>
       </c>
       <c r="N34" t="n">
         <v>111.282654561452</v>
@@ -33596,13 +33596,13 @@
         <v>102.7875431070786</v>
       </c>
       <c r="P34" t="n">
-        <v>87.95250022488894</v>
+        <v>87.95250022488892</v>
       </c>
       <c r="Q34" t="n">
         <v>60.89375222274897</v>
       </c>
       <c r="R34" t="n">
-        <v>32.69791537224149</v>
+        <v>32.69791537224148</v>
       </c>
       <c r="S34" t="n">
         <v>12.67325187395611</v>
@@ -33654,7 +33654,7 @@
         <v>16.60296555495963</v>
       </c>
       <c r="I35" t="n">
-        <v>62.50075230636708</v>
+        <v>62.50075230636707</v>
       </c>
       <c r="J35" t="n">
         <v>137.5960891268406</v>
@@ -33669,7 +33669,7 @@
         <v>284.6659807642922</v>
       </c>
       <c r="N35" t="n">
-        <v>289.2721739421787</v>
+        <v>289.2721739421786</v>
       </c>
       <c r="O35" t="n">
         <v>273.1515110604864</v>
@@ -33684,7 +33684,7 @@
         <v>101.8367909231523</v>
       </c>
       <c r="S35" t="n">
-        <v>36.94276358683198</v>
+        <v>36.94276358683197</v>
       </c>
       <c r="T35" t="n">
         <v>7.096739335221367</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.867410690165361</v>
+        <v>0.8674106901653608</v>
       </c>
       <c r="H36" t="n">
-        <v>8.377361139228618</v>
+        <v>8.377361139228617</v>
       </c>
       <c r="I36" t="n">
-        <v>29.86479788507932</v>
+        <v>29.86479788507931</v>
       </c>
       <c r="J36" t="n">
-        <v>81.95128805636861</v>
+        <v>81.9512880563686</v>
       </c>
       <c r="K36" t="n">
         <v>140.0678042974478</v>
@@ -33745,13 +33745,13 @@
         <v>188.3384483185798</v>
       </c>
       <c r="M36" t="n">
-        <v>219.7820858370741</v>
+        <v>219.782085837074</v>
       </c>
       <c r="N36" t="n">
         <v>225.5990636671743</v>
       </c>
       <c r="O36" t="n">
-        <v>206.3790689008787</v>
+        <v>206.3790689008786</v>
       </c>
       <c r="P36" t="n">
         <v>165.6373974930679</v>
@@ -33760,16 +33760,16 @@
         <v>110.724213713038</v>
       </c>
       <c r="R36" t="n">
-        <v>53.85555144728445</v>
+        <v>53.85555144728444</v>
       </c>
       <c r="S36" t="n">
         <v>16.11177312653641</v>
       </c>
       <c r="T36" t="n">
-        <v>3.49627379062266</v>
+        <v>3.496273790622659</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05706649277403693</v>
+        <v>0.05706649277403692</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,22 +33809,22 @@
         <v>0.7272079844210603</v>
       </c>
       <c r="H37" t="n">
-        <v>6.465540079670887</v>
+        <v>6.465540079670886</v>
       </c>
       <c r="I37" t="n">
-        <v>21.86912738604426</v>
+        <v>21.86912738604425</v>
       </c>
       <c r="J37" t="n">
-        <v>51.41360449856897</v>
+        <v>51.41360449856896</v>
       </c>
       <c r="K37" t="n">
-        <v>84.48834582637409</v>
+        <v>84.48834582637407</v>
       </c>
       <c r="L37" t="n">
         <v>108.115994338382</v>
       </c>
       <c r="M37" t="n">
-        <v>113.9931570488395</v>
+        <v>113.9931570488394</v>
       </c>
       <c r="N37" t="n">
         <v>111.282654561452</v>
@@ -33833,13 +33833,13 @@
         <v>102.7875431070786</v>
       </c>
       <c r="P37" t="n">
-        <v>87.95250022488894</v>
+        <v>87.95250022488892</v>
       </c>
       <c r="Q37" t="n">
         <v>60.89375222274897</v>
       </c>
       <c r="R37" t="n">
-        <v>32.69791537224149</v>
+        <v>32.69791537224148</v>
       </c>
       <c r="S37" t="n">
         <v>12.67325187395611</v>
@@ -33891,7 +33891,7 @@
         <v>16.60296555495963</v>
       </c>
       <c r="I38" t="n">
-        <v>62.50075230636708</v>
+        <v>62.50075230636707</v>
       </c>
       <c r="J38" t="n">
         <v>137.5960891268406</v>
@@ -33906,7 +33906,7 @@
         <v>284.6659807642922</v>
       </c>
       <c r="N38" t="n">
-        <v>289.2721739421787</v>
+        <v>289.2721739421786</v>
       </c>
       <c r="O38" t="n">
         <v>273.1515110604864</v>
@@ -33921,7 +33921,7 @@
         <v>101.8367909231523</v>
       </c>
       <c r="S38" t="n">
-        <v>36.94276358683198</v>
+        <v>36.94276358683197</v>
       </c>
       <c r="T38" t="n">
         <v>7.096739335221367</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.867410690165361</v>
+        <v>0.8674106901653608</v>
       </c>
       <c r="H39" t="n">
-        <v>8.377361139228618</v>
+        <v>8.377361139228617</v>
       </c>
       <c r="I39" t="n">
-        <v>29.86479788507932</v>
+        <v>29.86479788507931</v>
       </c>
       <c r="J39" t="n">
-        <v>81.95128805636861</v>
+        <v>81.9512880563686</v>
       </c>
       <c r="K39" t="n">
         <v>140.0678042974478</v>
@@ -33982,13 +33982,13 @@
         <v>188.3384483185798</v>
       </c>
       <c r="M39" t="n">
-        <v>219.7820858370741</v>
+        <v>219.782085837074</v>
       </c>
       <c r="N39" t="n">
         <v>225.5990636671743</v>
       </c>
       <c r="O39" t="n">
-        <v>206.3790689008787</v>
+        <v>206.3790689008786</v>
       </c>
       <c r="P39" t="n">
         <v>165.6373974930679</v>
@@ -33997,16 +33997,16 @@
         <v>110.724213713038</v>
       </c>
       <c r="R39" t="n">
-        <v>53.85555144728445</v>
+        <v>53.85555144728444</v>
       </c>
       <c r="S39" t="n">
         <v>16.11177312653641</v>
       </c>
       <c r="T39" t="n">
-        <v>3.49627379062266</v>
+        <v>3.496273790622659</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05706649277403693</v>
+        <v>0.05706649277403692</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,22 +34046,22 @@
         <v>0.7272079844210603</v>
       </c>
       <c r="H40" t="n">
-        <v>6.465540079670887</v>
+        <v>6.465540079670886</v>
       </c>
       <c r="I40" t="n">
-        <v>21.86912738604426</v>
+        <v>21.86912738604425</v>
       </c>
       <c r="J40" t="n">
-        <v>51.41360449856897</v>
+        <v>51.41360449856896</v>
       </c>
       <c r="K40" t="n">
-        <v>84.48834582637409</v>
+        <v>84.48834582637407</v>
       </c>
       <c r="L40" t="n">
         <v>108.115994338382</v>
       </c>
       <c r="M40" t="n">
-        <v>113.9931570488395</v>
+        <v>113.9931570488394</v>
       </c>
       <c r="N40" t="n">
         <v>111.282654561452</v>
@@ -34070,13 +34070,13 @@
         <v>102.7875431070786</v>
       </c>
       <c r="P40" t="n">
-        <v>87.95250022488894</v>
+        <v>87.95250022488892</v>
       </c>
       <c r="Q40" t="n">
         <v>60.89375222274897</v>
       </c>
       <c r="R40" t="n">
-        <v>32.69791537224149</v>
+        <v>32.69791537224148</v>
       </c>
       <c r="S40" t="n">
         <v>12.67325187395611</v>
@@ -34128,7 +34128,7 @@
         <v>16.60296555495963</v>
       </c>
       <c r="I41" t="n">
-        <v>62.50075230636708</v>
+        <v>62.50075230636707</v>
       </c>
       <c r="J41" t="n">
         <v>137.5960891268406</v>
@@ -34143,7 +34143,7 @@
         <v>284.6659807642922</v>
       </c>
       <c r="N41" t="n">
-        <v>289.2721739421787</v>
+        <v>289.2721739421786</v>
       </c>
       <c r="O41" t="n">
         <v>273.1515110604864</v>
@@ -34158,7 +34158,7 @@
         <v>101.8367909231523</v>
       </c>
       <c r="S41" t="n">
-        <v>36.94276358683198</v>
+        <v>36.94276358683197</v>
       </c>
       <c r="T41" t="n">
         <v>7.096739335221367</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.867410690165361</v>
+        <v>0.8674106901653608</v>
       </c>
       <c r="H42" t="n">
-        <v>8.377361139228618</v>
+        <v>8.377361139228617</v>
       </c>
       <c r="I42" t="n">
-        <v>29.86479788507932</v>
+        <v>29.86479788507931</v>
       </c>
       <c r="J42" t="n">
-        <v>81.95128805636861</v>
+        <v>81.9512880563686</v>
       </c>
       <c r="K42" t="n">
         <v>140.0678042974478</v>
@@ -34219,13 +34219,13 @@
         <v>188.3384483185798</v>
       </c>
       <c r="M42" t="n">
-        <v>219.7820858370741</v>
+        <v>219.782085837074</v>
       </c>
       <c r="N42" t="n">
         <v>225.5990636671743</v>
       </c>
       <c r="O42" t="n">
-        <v>206.3790689008787</v>
+        <v>206.3790689008786</v>
       </c>
       <c r="P42" t="n">
         <v>165.6373974930679</v>
@@ -34234,16 +34234,16 @@
         <v>110.724213713038</v>
       </c>
       <c r="R42" t="n">
-        <v>53.85555144728445</v>
+        <v>53.85555144728444</v>
       </c>
       <c r="S42" t="n">
         <v>16.11177312653641</v>
       </c>
       <c r="T42" t="n">
-        <v>3.49627379062266</v>
+        <v>3.496273790622659</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05706649277403693</v>
+        <v>0.05706649277403692</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,22 +34283,22 @@
         <v>0.7272079844210603</v>
       </c>
       <c r="H43" t="n">
-        <v>6.465540079670887</v>
+        <v>6.465540079670886</v>
       </c>
       <c r="I43" t="n">
-        <v>21.86912738604426</v>
+        <v>21.86912738604425</v>
       </c>
       <c r="J43" t="n">
-        <v>51.41360449856897</v>
+        <v>51.41360449856896</v>
       </c>
       <c r="K43" t="n">
-        <v>84.48834582637409</v>
+        <v>84.48834582637407</v>
       </c>
       <c r="L43" t="n">
         <v>108.115994338382</v>
       </c>
       <c r="M43" t="n">
-        <v>113.9931570488395</v>
+        <v>113.9931570488394</v>
       </c>
       <c r="N43" t="n">
         <v>111.282654561452</v>
@@ -34307,13 +34307,13 @@
         <v>102.7875431070786</v>
       </c>
       <c r="P43" t="n">
-        <v>87.95250022488894</v>
+        <v>87.95250022488892</v>
       </c>
       <c r="Q43" t="n">
         <v>60.89375222274897</v>
       </c>
       <c r="R43" t="n">
-        <v>32.69791537224149</v>
+        <v>32.69791537224148</v>
       </c>
       <c r="S43" t="n">
         <v>12.67325187395611</v>
@@ -34365,7 +34365,7 @@
         <v>16.60296555495963</v>
       </c>
       <c r="I44" t="n">
-        <v>62.50075230636708</v>
+        <v>62.50075230636707</v>
       </c>
       <c r="J44" t="n">
         <v>137.5960891268406</v>
@@ -34380,7 +34380,7 @@
         <v>284.6659807642922</v>
       </c>
       <c r="N44" t="n">
-        <v>289.2721739421787</v>
+        <v>289.2721739421786</v>
       </c>
       <c r="O44" t="n">
         <v>273.1515110604864</v>
@@ -34395,7 +34395,7 @@
         <v>101.8367909231523</v>
       </c>
       <c r="S44" t="n">
-        <v>36.94276358683198</v>
+        <v>36.94276358683197</v>
       </c>
       <c r="T44" t="n">
         <v>7.096739335221367</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.867410690165361</v>
+        <v>0.8674106901653608</v>
       </c>
       <c r="H45" t="n">
-        <v>8.377361139228618</v>
+        <v>8.377361139228617</v>
       </c>
       <c r="I45" t="n">
-        <v>29.86479788507932</v>
+        <v>29.86479788507931</v>
       </c>
       <c r="J45" t="n">
-        <v>81.95128805636861</v>
+        <v>81.9512880563686</v>
       </c>
       <c r="K45" t="n">
         <v>140.0678042974478</v>
@@ -34456,13 +34456,13 @@
         <v>188.3384483185798</v>
       </c>
       <c r="M45" t="n">
-        <v>219.7820858370741</v>
+        <v>219.782085837074</v>
       </c>
       <c r="N45" t="n">
         <v>225.5990636671743</v>
       </c>
       <c r="O45" t="n">
-        <v>206.3790689008787</v>
+        <v>206.3790689008786</v>
       </c>
       <c r="P45" t="n">
         <v>165.6373974930679</v>
@@ -34471,16 +34471,16 @@
         <v>110.724213713038</v>
       </c>
       <c r="R45" t="n">
-        <v>53.85555144728445</v>
+        <v>53.85555144728444</v>
       </c>
       <c r="S45" t="n">
         <v>16.11177312653641</v>
       </c>
       <c r="T45" t="n">
-        <v>3.49627379062266</v>
+        <v>3.496273790622659</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05706649277403693</v>
+        <v>0.05706649277403692</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,22 +34520,22 @@
         <v>0.7272079844210603</v>
       </c>
       <c r="H46" t="n">
-        <v>6.465540079670887</v>
+        <v>6.465540079670886</v>
       </c>
       <c r="I46" t="n">
-        <v>21.86912738604426</v>
+        <v>21.86912738604425</v>
       </c>
       <c r="J46" t="n">
-        <v>51.41360449856897</v>
+        <v>51.41360449856896</v>
       </c>
       <c r="K46" t="n">
-        <v>84.48834582637409</v>
+        <v>84.48834582637407</v>
       </c>
       <c r="L46" t="n">
         <v>108.115994338382</v>
       </c>
       <c r="M46" t="n">
-        <v>113.9931570488395</v>
+        <v>113.9931570488394</v>
       </c>
       <c r="N46" t="n">
         <v>111.282654561452</v>
@@ -34544,13 +34544,13 @@
         <v>102.7875431070786</v>
       </c>
       <c r="P46" t="n">
-        <v>87.95250022488894</v>
+        <v>87.95250022488892</v>
       </c>
       <c r="Q46" t="n">
         <v>60.89375222274897</v>
       </c>
       <c r="R46" t="n">
-        <v>32.69791537224149</v>
+        <v>32.69791537224148</v>
       </c>
       <c r="S46" t="n">
         <v>12.67325187395611</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="O2" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="R2" t="n">
-        <v>39.64570999510201</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>41.31500304752736</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>13.31876740878121</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K4" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
+        <v>41.31500304752736</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>39.64570999510201</v>
+      </c>
+      <c r="Q4" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K5" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L5" t="n">
-        <v>41.31500304752735</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="N5" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
         <v>41.31500304752736</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>13.31876740878121</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q6" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="R6" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35099,19 +35099,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q7" t="n">
         <v>41.31500304752734</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="P8" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>39.64570999510202</v>
       </c>
       <c r="Q8" t="n">
         <v>41.31500304752734</v>
@@ -35248,28 +35248,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>13.31876740878122</v>
+      </c>
+      <c r="P9" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>39.64570999510202</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>41.31500304752734</v>
@@ -35333,7 +35333,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K10" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -35345,10 +35345,10 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="P10" t="n">
-        <v>39.64570999510201</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q10" t="n">
         <v>41.31500304752734</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>62.08813082723568</v>
+        <v>62.08813082723567</v>
       </c>
       <c r="J11" t="n">
         <v>137.5960891268406</v>
@@ -35418,22 +35418,22 @@
         <v>255.8352239047279</v>
       </c>
       <c r="M11" t="n">
-        <v>284.6659807642923</v>
+        <v>284.6659807642922</v>
       </c>
       <c r="N11" t="n">
-        <v>289.2721739421786</v>
+        <v>289.2721739421787</v>
       </c>
       <c r="O11" t="n">
         <v>273.1515110604864</v>
       </c>
       <c r="P11" t="n">
-        <v>404.5735256800428</v>
+        <v>233.1284951065682</v>
       </c>
       <c r="Q11" t="n">
-        <v>175.0697909506309</v>
+        <v>175.6521298543512</v>
       </c>
       <c r="R11" t="n">
-        <v>101.8367909231524</v>
+        <v>272.6994825929069</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>29.86479788507932</v>
+        <v>56.19174047140013</v>
       </c>
       <c r="J12" t="n">
-        <v>81.9512880563686</v>
+        <v>165.6115744422576</v>
       </c>
       <c r="K12" t="n">
         <v>140.0678042974478</v>
@@ -35509,10 +35509,10 @@
         <v>165.637397493068</v>
       </c>
       <c r="Q12" t="n">
-        <v>220.7114426852474</v>
+        <v>110.7242137130379</v>
       </c>
       <c r="R12" t="n">
-        <v>172.2118929567187</v>
+        <v>172.2118929567184</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>138.8678319376496</v>
+        <v>51.41360449856897</v>
       </c>
       <c r="K13" t="n">
-        <v>362.0221383224707</v>
+        <v>84.48834582637406</v>
       </c>
       <c r="L13" t="n">
         <v>530.5502183464235</v>
       </c>
       <c r="M13" t="n">
-        <v>113.9931570488395</v>
+        <v>113.9931570488394</v>
       </c>
       <c r="N13" t="n">
-        <v>187.9486488400921</v>
+        <v>371.8112959409164</v>
       </c>
       <c r="O13" t="n">
-        <v>526.6958756583729</v>
+        <v>526.6958756583731</v>
       </c>
       <c r="P13" t="n">
-        <v>87.95250022488904</v>
+        <v>438.9695648413958</v>
       </c>
       <c r="Q13" t="n">
-        <v>230.7854440049027</v>
+        <v>60.89375222274884</v>
       </c>
       <c r="R13" t="n">
         <v>11.49427229055965</v>
@@ -35643,10 +35643,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>62.08813082723568</v>
+        <v>62.08813082723567</v>
       </c>
       <c r="J14" t="n">
-        <v>137.5960891268406</v>
+        <v>309.0411197003157</v>
       </c>
       <c r="K14" t="n">
         <v>206.2208694946123</v>
@@ -35655,7 +35655,7 @@
         <v>255.8352239047279</v>
       </c>
       <c r="M14" t="n">
-        <v>456.111011337767</v>
+        <v>284.6659807642922</v>
       </c>
       <c r="N14" t="n">
         <v>289.2721739421786</v>
@@ -35667,7 +35667,7 @@
         <v>233.1284951065682</v>
       </c>
       <c r="Q14" t="n">
-        <v>175.0697909506309</v>
+        <v>175.0697909506307</v>
       </c>
       <c r="R14" t="n">
         <v>101.8367909231524</v>
@@ -35725,7 +35725,7 @@
         <v>56.19174047140013</v>
       </c>
       <c r="J15" t="n">
-        <v>165.6115744422572</v>
+        <v>165.6115744422576</v>
       </c>
       <c r="K15" t="n">
         <v>140.0678042974478</v>
@@ -35746,10 +35746,10 @@
         <v>165.637397493068</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.7242137130381</v>
+        <v>110.7242137130379</v>
       </c>
       <c r="R15" t="n">
-        <v>172.2118929567187</v>
+        <v>172.2118929567184</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>51.41360449856897</v>
       </c>
       <c r="K16" t="n">
-        <v>256.862161471323</v>
+        <v>84.48834582637406</v>
       </c>
       <c r="L16" t="n">
-        <v>530.5502183464235</v>
+        <v>108.115994338382</v>
       </c>
       <c r="M16" t="n">
-        <v>553.1650473998617</v>
+        <v>553.1650473998616</v>
       </c>
       <c r="N16" t="n">
-        <v>111.2826545614521</v>
+        <v>553.1650473998618</v>
       </c>
       <c r="O16" t="n">
         <v>526.6958756583731</v>
       </c>
       <c r="P16" t="n">
-        <v>87.95250022488881</v>
+        <v>240.8781470394697</v>
       </c>
       <c r="Q16" t="n">
         <v>60.89375222274884</v>
@@ -35880,10 +35880,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>62.08813082723568</v>
+        <v>62.08813082723567</v>
       </c>
       <c r="J17" t="n">
-        <v>137.5960891268406</v>
+        <v>577.2472885742325</v>
       </c>
       <c r="K17" t="n">
         <v>206.2208694946123</v>
@@ -35892,22 +35892,22 @@
         <v>255.8352239047279</v>
       </c>
       <c r="M17" t="n">
-        <v>284.6659807642922</v>
+        <v>284.6659807642923</v>
       </c>
       <c r="N17" t="n">
         <v>289.2721739421786</v>
       </c>
       <c r="O17" t="n">
-        <v>750.2266901576907</v>
+        <v>273.1515110604864</v>
       </c>
       <c r="P17" t="n">
         <v>233.1284951065682</v>
       </c>
       <c r="Q17" t="n">
-        <v>649.7241268821431</v>
+        <v>516.2854148622</v>
       </c>
       <c r="R17" t="n">
-        <v>101.8367909231524</v>
+        <v>272.6994825929069</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>56.19174047140012</v>
       </c>
       <c r="J18" t="n">
-        <v>81.95128805636861</v>
+        <v>165.6115744422578</v>
       </c>
       <c r="K18" t="n">
-        <v>342.0844321927709</v>
+        <v>140.0678042974477</v>
       </c>
       <c r="L18" t="n">
         <v>188.3384483185798</v>
@@ -35986,7 +35986,7 @@
         <v>110.7242137130379</v>
       </c>
       <c r="R18" t="n">
-        <v>53.85555144728437</v>
+        <v>172.2118929567184</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,10 +36044,10 @@
         <v>138.8678319376496</v>
       </c>
       <c r="K19" t="n">
-        <v>362.0221383224706</v>
+        <v>126.996062061839</v>
       </c>
       <c r="L19" t="n">
-        <v>125.632450303639</v>
+        <v>530.5502183464235</v>
       </c>
       <c r="M19" t="n">
         <v>578.1182754133981</v>
@@ -36062,7 +36062,7 @@
         <v>438.9695648413958</v>
       </c>
       <c r="Q19" t="n">
-        <v>230.7854440049027</v>
+        <v>60.89375222274884</v>
       </c>
       <c r="R19" t="n">
         <v>11.49427229055965</v>
@@ -36117,13 +36117,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>62.08813082723568</v>
+        <v>62.08813082723567</v>
       </c>
       <c r="J20" t="n">
-        <v>137.5960891268406</v>
+        <v>441.3877333885982</v>
       </c>
       <c r="K20" t="n">
-        <v>696.9958683078169</v>
+        <v>206.2208694946123</v>
       </c>
       <c r="L20" t="n">
         <v>255.8352239047279</v>
@@ -36132,10 +36132,10 @@
         <v>284.6659807642923</v>
       </c>
       <c r="N20" t="n">
+        <v>289.2721739421786</v>
+      </c>
+      <c r="O20" t="n">
         <v>750.2266901576904</v>
-      </c>
-      <c r="O20" t="n">
-        <v>273.1515110604864</v>
       </c>
       <c r="P20" t="n">
         <v>233.1284951065682</v>
@@ -36144,7 +36144,7 @@
         <v>175.0697909506307</v>
       </c>
       <c r="R20" t="n">
-        <v>101.8367909231524</v>
+        <v>272.6994825929069</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>56.19174047140012</v>
+        <v>56.19174047140013</v>
       </c>
       <c r="J21" t="n">
-        <v>81.95128805636861</v>
+        <v>165.6115744422578</v>
       </c>
       <c r="K21" t="n">
-        <v>223.7280906833364</v>
+        <v>140.0678042974477</v>
       </c>
       <c r="L21" t="n">
         <v>188.3384483185798</v>
@@ -36220,10 +36220,10 @@
         <v>165.637397493068</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.7242137130381</v>
+        <v>110.7242137130379</v>
       </c>
       <c r="R21" t="n">
-        <v>172.2118929567187</v>
+        <v>172.2118929567184</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>51.41360449856896</v>
+        <v>138.8678319376496</v>
       </c>
       <c r="K22" t="n">
-        <v>84.48834582637409</v>
+        <v>126.9960620618395</v>
       </c>
       <c r="L22" t="n">
-        <v>490.6204702388162</v>
+        <v>530.5502183464235</v>
       </c>
       <c r="M22" t="n">
         <v>578.1182754133981</v>
@@ -36299,7 +36299,7 @@
         <v>438.9695648413958</v>
       </c>
       <c r="Q22" t="n">
-        <v>230.7854440049027</v>
+        <v>60.89375222274884</v>
       </c>
       <c r="R22" t="n">
         <v>11.49427229055965</v>
@@ -36354,28 +36354,28 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>62.08813082723568</v>
+        <v>62.08813082723567</v>
       </c>
       <c r="J23" t="n">
         <v>577.2472885742325</v>
       </c>
       <c r="K23" t="n">
-        <v>206.2208694946123</v>
+        <v>1048.998942179641</v>
       </c>
       <c r="L23" t="n">
-        <v>255.835223904728</v>
+        <v>255.8352239047279</v>
       </c>
       <c r="M23" t="n">
-        <v>284.6659807642923</v>
+        <v>284.665980764292</v>
       </c>
       <c r="N23" t="n">
         <v>289.2721739421786</v>
       </c>
       <c r="O23" t="n">
-        <v>1262.076734510025</v>
+        <v>409.6128128619389</v>
       </c>
       <c r="P23" t="n">
-        <v>1060.119287389363</v>
+        <v>1069.805136352423</v>
       </c>
       <c r="Q23" t="n">
         <v>727.088766666383</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>56.19174047140012</v>
+        <v>56.19174047140014</v>
       </c>
       <c r="J24" t="n">
-        <v>81.95128805636861</v>
+        <v>81.95128805636858</v>
       </c>
       <c r="K24" t="n">
-        <v>342.0844321927705</v>
+        <v>140.0678042974478</v>
       </c>
       <c r="L24" t="n">
         <v>188.3384483185798</v>
@@ -36457,10 +36457,10 @@
         <v>165.637397493068</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.7242137130381</v>
+        <v>194.3845000989265</v>
       </c>
       <c r="R24" t="n">
-        <v>53.85555144728437</v>
+        <v>172.2118929567187</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36524,10 +36524,10 @@
         <v>530.5502183464235</v>
       </c>
       <c r="M25" t="n">
-        <v>578.1182754133981</v>
+        <v>173.2005073706139</v>
       </c>
       <c r="N25" t="n">
-        <v>153.0909503142684</v>
+        <v>558.0087183570527</v>
       </c>
       <c r="O25" t="n">
         <v>526.6958756583731</v>
@@ -36591,25 +36591,25 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>62.08813082723568</v>
+        <v>62.08813082723567</v>
       </c>
       <c r="J26" t="n">
         <v>577.2472885742325</v>
       </c>
       <c r="K26" t="n">
-        <v>206.2208694946123</v>
+        <v>1048.998942179641</v>
       </c>
       <c r="L26" t="n">
-        <v>255.835223904728</v>
+        <v>255.8352239047279</v>
       </c>
       <c r="M26" t="n">
-        <v>284.6659807642923</v>
+        <v>284.665980764292</v>
       </c>
       <c r="N26" t="n">
         <v>289.2721739421786</v>
       </c>
       <c r="O26" t="n">
-        <v>1252.390885546966</v>
+        <v>409.612812861938</v>
       </c>
       <c r="P26" t="n">
         <v>1069.805136352423</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>29.86479788507931</v>
+        <v>56.19174047140011</v>
       </c>
       <c r="J27" t="n">
-        <v>310.2948585380121</v>
+        <v>81.95128805636858</v>
       </c>
       <c r="K27" t="n">
         <v>140.0678042974478</v>
@@ -36694,10 +36694,10 @@
         <v>165.637397493068</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.7242137130381</v>
+        <v>194.3845000989265</v>
       </c>
       <c r="R27" t="n">
-        <v>53.85555144728437</v>
+        <v>172.2118929567187</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>138.8678319376497</v>
+        <v>138.8678319376496</v>
       </c>
       <c r="K28" t="n">
-        <v>362.0221383224707</v>
+        <v>362.0221383224706</v>
       </c>
       <c r="L28" t="n">
-        <v>530.5502183464235</v>
+        <v>530.5502183464234</v>
       </c>
       <c r="M28" t="n">
         <v>578.1182754133981</v>
       </c>
       <c r="N28" t="n">
-        <v>153.0909503142684</v>
+        <v>558.0087183570524</v>
       </c>
       <c r="O28" t="n">
         <v>526.6958756583731</v>
       </c>
       <c r="P28" t="n">
-        <v>438.9695648413958</v>
+        <v>203.9434885807659</v>
       </c>
       <c r="Q28" t="n">
-        <v>230.7854440049027</v>
+        <v>60.89375222274884</v>
       </c>
       <c r="R28" t="n">
         <v>11.49427229055965</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>62.08813082723568</v>
+        <v>62.08813082723567</v>
       </c>
       <c r="J29" t="n">
         <v>577.2472885742325</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>56.19174047139995</v>
+        <v>56.19174047140011</v>
       </c>
       <c r="J30" t="n">
-        <v>81.95128805636841</v>
+        <v>165.6115744422572</v>
       </c>
       <c r="K30" t="n">
-        <v>342.0844321927725</v>
+        <v>140.0678042974478</v>
       </c>
       <c r="L30" t="n">
-        <v>188.33844831858</v>
+        <v>188.3384483185798</v>
       </c>
       <c r="M30" t="n">
-        <v>219.7820858370742</v>
+        <v>219.7820858370741</v>
       </c>
       <c r="N30" t="n">
-        <v>225.5990636671741</v>
+        <v>225.5990636671743</v>
       </c>
       <c r="O30" t="n">
-        <v>206.3790689008783</v>
+        <v>206.3790689008786</v>
       </c>
       <c r="P30" t="n">
-        <v>165.6373974930675</v>
+        <v>165.637397493068</v>
       </c>
       <c r="Q30" t="n">
         <v>110.7242137130379</v>
       </c>
       <c r="R30" t="n">
-        <v>53.8555514472846</v>
+        <v>172.2118929567187</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,16 +36989,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>51.41360449856897</v>
+        <v>138.8678319376496</v>
       </c>
       <c r="K31" t="n">
-        <v>84.48834582637409</v>
+        <v>362.0221383224706</v>
       </c>
       <c r="L31" t="n">
-        <v>530.5502183464235</v>
+        <v>530.5502183464234</v>
       </c>
       <c r="M31" t="n">
-        <v>578.118275413398</v>
+        <v>173.2005073706141</v>
       </c>
       <c r="N31" t="n">
         <v>558.0087183570527</v>
@@ -37010,7 +37010,7 @@
         <v>438.9695648413958</v>
       </c>
       <c r="Q31" t="n">
-        <v>190.8556958972958</v>
+        <v>230.7854440049027</v>
       </c>
       <c r="R31" t="n">
         <v>11.49427229055965</v>
@@ -37065,25 +37065,25 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>62.08813082723568</v>
+        <v>62.08813082723567</v>
       </c>
       <c r="J32" t="n">
         <v>577.2472885742325</v>
       </c>
       <c r="K32" t="n">
-        <v>206.2208694946123</v>
+        <v>1048.998942179641</v>
       </c>
       <c r="L32" t="n">
-        <v>255.835223904728</v>
+        <v>255.8352239047279</v>
       </c>
       <c r="M32" t="n">
-        <v>284.6659807642923</v>
+        <v>284.665980764292</v>
       </c>
       <c r="N32" t="n">
         <v>289.2721739421786</v>
       </c>
       <c r="O32" t="n">
-        <v>1252.390885546966</v>
+        <v>409.612812861938</v>
       </c>
       <c r="P32" t="n">
         <v>1069.805136352423</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>29.86479788507931</v>
+        <v>56.19174047140011</v>
       </c>
       <c r="J33" t="n">
-        <v>81.95128805636861</v>
+        <v>81.95128805636858</v>
       </c>
       <c r="K33" t="n">
-        <v>368.4113747790913</v>
+        <v>140.0678042974478</v>
       </c>
       <c r="L33" t="n">
         <v>188.3384483185798</v>
@@ -37168,10 +37168,10 @@
         <v>165.637397493068</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.7242137130381</v>
+        <v>194.3845000989265</v>
       </c>
       <c r="R33" t="n">
-        <v>53.85555144728437</v>
+        <v>172.2118929567187</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>138.8678319376495</v>
+        <v>138.8678319376496</v>
       </c>
       <c r="K34" t="n">
-        <v>362.0221383224707</v>
+        <v>362.0221383224706</v>
       </c>
       <c r="L34" t="n">
-        <v>530.5502183464237</v>
+        <v>530.5502183464234</v>
       </c>
       <c r="M34" t="n">
-        <v>578.1182754133979</v>
+        <v>173.2005073706141</v>
       </c>
       <c r="N34" t="n">
-        <v>153.090950314268</v>
+        <v>558.0087183570527</v>
       </c>
       <c r="O34" t="n">
         <v>526.6958756583731</v>
       </c>
       <c r="P34" t="n">
-        <v>438.9695648413954</v>
+        <v>438.9695648413958</v>
       </c>
       <c r="Q34" t="n">
-        <v>230.7854440049032</v>
+        <v>230.7854440049027</v>
       </c>
       <c r="R34" t="n">
         <v>11.49427229055965</v>
@@ -37302,22 +37302,22 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>62.08813082723568</v>
+        <v>62.08813082723567</v>
       </c>
       <c r="J35" t="n">
-        <v>366.4439367700503</v>
+        <v>137.5960891268406</v>
       </c>
       <c r="K35" t="n">
         <v>206.2208694946123</v>
       </c>
       <c r="L35" t="n">
-        <v>255.8352239047279</v>
+        <v>281.0495133245343</v>
       </c>
       <c r="M35" t="n">
-        <v>284.6659807642923</v>
+        <v>750.2266901576905</v>
       </c>
       <c r="N35" t="n">
-        <v>289.2721739421786</v>
+        <v>750.2266901576904</v>
       </c>
       <c r="O35" t="n">
         <v>273.1515110604864</v>
@@ -37326,10 +37326,10 @@
         <v>233.1284951065682</v>
       </c>
       <c r="Q35" t="n">
-        <v>727.088766666383</v>
+        <v>175.0697909506307</v>
       </c>
       <c r="R35" t="n">
-        <v>272.6994825929069</v>
+        <v>101.8367909231524</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>29.86479788507931</v>
+        <v>56.19174047140012</v>
       </c>
       <c r="J36" t="n">
-        <v>310.2948585380126</v>
+        <v>165.6115744422578</v>
       </c>
       <c r="K36" t="n">
-        <v>140.0678042974478</v>
+        <v>140.0678042974477</v>
       </c>
       <c r="L36" t="n">
         <v>188.3384483185798</v>
@@ -37408,7 +37408,7 @@
         <v>110.7242137130379</v>
       </c>
       <c r="R36" t="n">
-        <v>53.85555144728437</v>
+        <v>172.2118929567184</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>51.41360449856896</v>
+        <v>138.8678319376496</v>
       </c>
       <c r="K37" t="n">
         <v>362.0221383224706</v>
       </c>
       <c r="L37" t="n">
-        <v>530.5502183464235</v>
+        <v>530.5502183464234</v>
       </c>
       <c r="M37" t="n">
         <v>578.1182754133981</v>
       </c>
       <c r="N37" t="n">
-        <v>558.0087183570529</v>
+        <v>153.0909503142682</v>
       </c>
       <c r="O37" t="n">
         <v>526.6958756583731</v>
       </c>
       <c r="P37" t="n">
-        <v>291.3977160198456</v>
+        <v>438.9695648413958</v>
       </c>
       <c r="Q37" t="n">
-        <v>60.89375222274884</v>
+        <v>230.7854440049027</v>
       </c>
       <c r="R37" t="n">
         <v>11.49427229055965</v>
@@ -37539,13 +37539,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>62.08813082723568</v>
+        <v>62.08813082723567</v>
       </c>
       <c r="J38" t="n">
-        <v>545.3197834924788</v>
+        <v>457.5083962702907</v>
       </c>
       <c r="K38" t="n">
-        <v>750.2266901576905</v>
+        <v>206.2208694946123</v>
       </c>
       <c r="L38" t="n">
         <v>255.8352239047279</v>
@@ -37554,7 +37554,7 @@
         <v>284.6659807642923</v>
       </c>
       <c r="N38" t="n">
-        <v>289.2721739421786</v>
+        <v>750.2266901576904</v>
       </c>
       <c r="O38" t="n">
         <v>273.1515110604864</v>
@@ -37566,7 +37566,7 @@
         <v>175.0697909506307</v>
       </c>
       <c r="R38" t="n">
-        <v>101.8367909231524</v>
+        <v>272.6994825929069</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>29.86479788507931</v>
       </c>
       <c r="J39" t="n">
-        <v>310.2948585380126</v>
+        <v>81.9512880563686</v>
       </c>
       <c r="K39" t="n">
         <v>140.0678042974478</v>
@@ -37633,7 +37633,7 @@
         <v>219.7820858370741</v>
       </c>
       <c r="N39" t="n">
-        <v>225.5990636671743</v>
+        <v>453.9426341488183</v>
       </c>
       <c r="O39" t="n">
         <v>206.3790689008786</v>
@@ -37703,13 +37703,13 @@
         <v>138.8678319376496</v>
       </c>
       <c r="K40" t="n">
-        <v>362.0221383224706</v>
+        <v>84.48834582637406</v>
       </c>
       <c r="L40" t="n">
-        <v>125.632450303639</v>
+        <v>530.5502183464235</v>
       </c>
       <c r="M40" t="n">
-        <v>578.1182754133981</v>
+        <v>578.118275413398</v>
       </c>
       <c r="N40" t="n">
         <v>558.0087183570527</v>
@@ -37721,7 +37721,7 @@
         <v>438.9695648413958</v>
       </c>
       <c r="Q40" t="n">
-        <v>230.7854440049027</v>
+        <v>103.4014684582148</v>
       </c>
       <c r="R40" t="n">
         <v>11.49427229055965</v>
@@ -37776,10 +37776,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>62.08813082723568</v>
+        <v>62.08813082723567</v>
       </c>
       <c r="J41" t="n">
-        <v>138.1784280305608</v>
+        <v>137.5960891268406</v>
       </c>
       <c r="K41" t="n">
         <v>206.2208694946123</v>
@@ -37788,10 +37788,10 @@
         <v>255.8352239047279</v>
       </c>
       <c r="M41" t="n">
-        <v>284.6659807642923</v>
+        <v>284.6659807642922</v>
       </c>
       <c r="N41" t="n">
-        <v>289.2721739421786</v>
+        <v>289.2721739421787</v>
       </c>
       <c r="O41" t="n">
         <v>273.1515110604864</v>
@@ -37800,7 +37800,7 @@
         <v>233.1284951065682</v>
       </c>
       <c r="Q41" t="n">
-        <v>175.0697909506309</v>
+        <v>175.6521298543526</v>
       </c>
       <c r="R41" t="n">
         <v>272.6994825929069</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>29.86479788507932</v>
+        <v>29.86479788507931</v>
       </c>
       <c r="J42" t="n">
-        <v>191.938517028578</v>
+        <v>81.95128805636858</v>
       </c>
       <c r="K42" t="n">
         <v>140.0678042974478</v>
       </c>
       <c r="L42" t="n">
-        <v>188.3384483185798</v>
+        <v>416.6820188002237</v>
       </c>
       <c r="M42" t="n">
         <v>219.7820858370741</v>
@@ -37879,10 +37879,10 @@
         <v>165.637397493068</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.7242137130381</v>
+        <v>110.7242137130379</v>
       </c>
       <c r="R42" t="n">
-        <v>172.2118929567187</v>
+        <v>53.85555144728437</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,25 +37940,25 @@
         <v>51.41360449856897</v>
       </c>
       <c r="K43" t="n">
-        <v>362.0221383224706</v>
+        <v>84.48834582637409</v>
       </c>
       <c r="L43" t="n">
-        <v>530.5502183464235</v>
+        <v>261.0416411529636</v>
       </c>
       <c r="M43" t="n">
-        <v>553.1650473998617</v>
+        <v>553.165047399862</v>
       </c>
       <c r="N43" t="n">
-        <v>260.1393184794449</v>
+        <v>553.165047399862</v>
       </c>
       <c r="O43" t="n">
-        <v>102.7875431070786</v>
+        <v>526.6958756583731</v>
       </c>
       <c r="P43" t="n">
-        <v>87.95250022488904</v>
+        <v>87.95250022488881</v>
       </c>
       <c r="Q43" t="n">
-        <v>230.7854440049027</v>
+        <v>60.89375222274884</v>
       </c>
       <c r="R43" t="n">
         <v>11.49427229055965</v>
@@ -38013,10 +38013,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>62.08813082723568</v>
+        <v>62.08813082723567</v>
       </c>
       <c r="J44" t="n">
-        <v>137.5960891268406</v>
+        <v>309.041119700317</v>
       </c>
       <c r="K44" t="n">
         <v>206.2208694946123</v>
@@ -38025,7 +38025,7 @@
         <v>255.8352239047279</v>
       </c>
       <c r="M44" t="n">
-        <v>284.6659807642923</v>
+        <v>284.6659807642922</v>
       </c>
       <c r="N44" t="n">
         <v>289.2721739421786</v>
@@ -38037,7 +38037,7 @@
         <v>233.1284951065682</v>
       </c>
       <c r="Q44" t="n">
-        <v>346.5148215241056</v>
+        <v>175.0697909506307</v>
       </c>
       <c r="R44" t="n">
         <v>101.8367909231524</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>56.19174047140013</v>
+        <v>29.86479788507931</v>
       </c>
       <c r="J45" t="n">
-        <v>81.95128805636861</v>
+        <v>81.95128805636858</v>
       </c>
       <c r="K45" t="n">
-        <v>140.0678042974478</v>
+        <v>368.4113747790917</v>
       </c>
       <c r="L45" t="n">
         <v>188.3384483185798</v>
@@ -38110,13 +38110,13 @@
         <v>225.5990636671743</v>
       </c>
       <c r="O45" t="n">
-        <v>206.3790689008787</v>
+        <v>206.3790689008786</v>
       </c>
       <c r="P45" t="n">
         <v>165.637397493068</v>
       </c>
       <c r="Q45" t="n">
-        <v>312.7408416083608</v>
+        <v>110.7242137130379</v>
       </c>
       <c r="R45" t="n">
         <v>53.85555144728437</v>
@@ -38174,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>138.8678319376496</v>
+        <v>51.41360449856897</v>
       </c>
       <c r="K46" t="n">
-        <v>362.0221383224707</v>
+        <v>84.48834582637409</v>
       </c>
       <c r="L46" t="n">
-        <v>530.5502183464235</v>
+        <v>530.5502183464237</v>
       </c>
       <c r="M46" t="n">
-        <v>553.1650473998618</v>
+        <v>113.9931570488394</v>
       </c>
       <c r="N46" t="n">
-        <v>111.2826545614521</v>
+        <v>553.1650473998619</v>
       </c>
       <c r="O46" t="n">
-        <v>102.7875431070786</v>
+        <v>526.6958756583731</v>
       </c>
       <c r="P46" t="n">
-        <v>319.2466284859549</v>
+        <v>257.6158133824515</v>
       </c>
       <c r="Q46" t="n">
         <v>60.89375222274884</v>
